--- a/game_excel/fusion.xlsx
+++ b/game_excel/fusion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="432">
   <si>
     <t>FormulaID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,274 +429,949 @@
     <t>6,50000</t>
   </si>
   <si>
-    <t>Boomer</t>
-  </si>
-  <si>
     <t>icon_H1003Boomer</t>
   </si>
   <si>
-    <t>三角头</t>
-  </si>
-  <si>
     <t>icon_H1001sjt</t>
   </si>
   <si>
-    <t>护士</t>
-  </si>
-  <si>
     <t>icon_H1002hs</t>
   </si>
   <si>
-    <t>暴君</t>
-  </si>
-  <si>
     <t>icon_H1004bj</t>
   </si>
   <si>
-    <t>骷髅王</t>
-  </si>
-  <si>
     <t>icon_H1005klw</t>
   </si>
   <si>
-    <t>阿尔萨斯</t>
-  </si>
-  <si>
     <t>icon_H1006aess</t>
   </si>
   <si>
-    <t>海拉</t>
-  </si>
-  <si>
     <t>icon_H1037hl</t>
   </si>
   <si>
-    <t>弗莱迪</t>
-  </si>
-  <si>
     <t>icon_H1038fld</t>
   </si>
   <si>
-    <t>卢瑟</t>
-  </si>
-  <si>
     <t>icon_H1008ls</t>
   </si>
   <si>
-    <t>逆闪电</t>
-  </si>
-  <si>
     <t>icon_H1012nsd</t>
   </si>
   <si>
-    <t>小丑女</t>
-  </si>
-  <si>
     <t>icon_H1010xcn</t>
   </si>
   <si>
-    <t>死侍</t>
-  </si>
-  <si>
     <t>icon_H1011ss</t>
   </si>
   <si>
-    <t>洛基</t>
-  </si>
-  <si>
     <t>icon_H1009lj</t>
   </si>
   <si>
-    <t>灭霸</t>
-  </si>
-  <si>
     <t>icon_H1007mb</t>
   </si>
   <si>
-    <t>地狱男爵</t>
-  </si>
-  <si>
     <t>icon_H1042dynj</t>
   </si>
   <si>
-    <t>毒液</t>
-  </si>
-  <si>
     <t>icon_H1041dy</t>
   </si>
   <si>
-    <t>黑凤凰</t>
-  </si>
-  <si>
     <t>icon_H1040hfh</t>
   </si>
   <si>
-    <t>罗宾</t>
-  </si>
-  <si>
     <t>icon_H1016lb</t>
   </si>
   <si>
-    <t>秘客</t>
-  </si>
-  <si>
     <t>icon_H1018mk</t>
   </si>
   <si>
-    <t>海王</t>
-  </si>
-  <si>
     <t>icon_H1017hw</t>
   </si>
   <si>
-    <t>黑豹</t>
-  </si>
-  <si>
     <t>icon_H1013hb</t>
   </si>
   <si>
-    <t>钢铁侠</t>
-  </si>
-  <si>
     <t>icon_H1015gtx</t>
   </si>
   <si>
-    <t>美队</t>
-  </si>
-  <si>
     <t>icon_H1014md</t>
   </si>
   <si>
-    <t>蜘蛛侠</t>
-  </si>
-  <si>
     <t>icon_H1043zzx</t>
   </si>
   <si>
-    <t>半藏</t>
-  </si>
-  <si>
     <t>icon_H1021bz</t>
   </si>
   <si>
-    <t>上气</t>
-  </si>
-  <si>
     <t>icon_H1024sq</t>
   </si>
   <si>
-    <t>貂蝉</t>
-  </si>
-  <si>
     <t>icon_H1023dc</t>
   </si>
   <si>
-    <t>熊猫</t>
-  </si>
-  <si>
     <t>icon_H1022xmr</t>
   </si>
   <si>
-    <t>鸣人</t>
-  </si>
-  <si>
     <t>icon_H1020mr</t>
   </si>
   <si>
-    <t>猴子</t>
-  </si>
-  <si>
     <t>icon_H1019wk</t>
   </si>
   <si>
-    <t>承太郎</t>
-  </si>
-  <si>
     <t>icon_H1048ktctl</t>
   </si>
   <si>
-    <t>美杜莎</t>
-  </si>
-  <si>
     <t>icon_H1027mds</t>
   </si>
   <si>
-    <t>杰克</t>
-  </si>
-  <si>
     <t>icon_H1026jk</t>
   </si>
   <si>
-    <t>铁血</t>
-  </si>
-  <si>
     <t>icon_H1030txzs</t>
   </si>
   <si>
-    <t>林克</t>
-  </si>
-  <si>
     <t>icon_H1028lk</t>
   </si>
   <si>
-    <t>杰洛特</t>
-  </si>
-  <si>
     <t>icon_H1029jlt</t>
   </si>
   <si>
-    <t>奎爷</t>
-  </si>
-  <si>
     <t>icon_H1025ky</t>
   </si>
   <si>
-    <t>范海辛</t>
-  </si>
-  <si>
     <t>icon_H1049fhx</t>
   </si>
   <si>
-    <t>大黄蜂</t>
-  </si>
-  <si>
     <t>icon_H1034dhf</t>
   </si>
   <si>
-    <t>2B</t>
-  </si>
-  <si>
     <t>icon_H1035ne</t>
   </si>
   <si>
-    <t>高达</t>
-  </si>
-  <si>
     <t>icon_H1031RX78gd</t>
   </si>
   <si>
-    <t>阿利塔</t>
-  </si>
-  <si>
     <t>icon_H1036alt</t>
   </si>
   <si>
-    <t>红扎古</t>
-  </si>
-  <si>
     <t>icon_H1032hszg</t>
   </si>
   <si>
-    <t>擎天柱</t>
-  </si>
-  <si>
     <t>icon_H1033qtz</t>
   </si>
   <si>
-    <t>初音</t>
-  </si>
-  <si>
     <t>icon_H1053cyfy</t>
+  </si>
+  <si>
+    <t>Boomer-6星</t>
+  </si>
+  <si>
+    <t>Boomer-7星</t>
+  </si>
+  <si>
+    <t>Boomer-8星</t>
+  </si>
+  <si>
+    <t>Boomer-9星</t>
+  </si>
+  <si>
+    <t>Boomer-10星</t>
+  </si>
+  <si>
+    <t>Boomer-11星</t>
+  </si>
+  <si>
+    <t>三角头-6星</t>
+  </si>
+  <si>
+    <t>三角头-7星</t>
+  </si>
+  <si>
+    <t>三角头-8星</t>
+  </si>
+  <si>
+    <t>三角头-9星</t>
+  </si>
+  <si>
+    <t>三角头-10星</t>
+  </si>
+  <si>
+    <t>三角头-11星</t>
+  </si>
+  <si>
+    <t>护士-6星</t>
+  </si>
+  <si>
+    <t>护士-7星</t>
+  </si>
+  <si>
+    <t>护士-8星</t>
+  </si>
+  <si>
+    <t>护士-9星</t>
+  </si>
+  <si>
+    <t>护士-10星</t>
+  </si>
+  <si>
+    <t>护士-11星</t>
+  </si>
+  <si>
+    <t>暴君-6星</t>
+  </si>
+  <si>
+    <t>暴君-7星</t>
+  </si>
+  <si>
+    <t>暴君-8星</t>
+  </si>
+  <si>
+    <t>暴君-9星</t>
+  </si>
+  <si>
+    <t>暴君-10星</t>
+  </si>
+  <si>
+    <t>暴君-11星</t>
+  </si>
+  <si>
+    <t>骷髅王-6星</t>
+  </si>
+  <si>
+    <t>骷髅王-7星</t>
+  </si>
+  <si>
+    <t>骷髅王-8星</t>
+  </si>
+  <si>
+    <t>骷髅王-9星</t>
+  </si>
+  <si>
+    <t>骷髅王-10星</t>
+  </si>
+  <si>
+    <t>骷髅王-11星</t>
+  </si>
+  <si>
+    <t>阿尔萨斯-6星</t>
+  </si>
+  <si>
+    <t>阿尔萨斯-7星</t>
+  </si>
+  <si>
+    <t>阿尔萨斯-8星</t>
+  </si>
+  <si>
+    <t>阿尔萨斯-9星</t>
+  </si>
+  <si>
+    <t>阿尔萨斯-10星</t>
+  </si>
+  <si>
+    <t>阿尔萨斯-11星</t>
+  </si>
+  <si>
+    <t>海拉-6星</t>
+  </si>
+  <si>
+    <t>海拉-7星</t>
+  </si>
+  <si>
+    <t>海拉-8星</t>
+  </si>
+  <si>
+    <t>海拉-9星</t>
+  </si>
+  <si>
+    <t>海拉-10星</t>
+  </si>
+  <si>
+    <t>海拉-11星</t>
+  </si>
+  <si>
+    <t>弗莱迪-6星</t>
+  </si>
+  <si>
+    <t>弗莱迪-7星</t>
+  </si>
+  <si>
+    <t>弗莱迪-8星</t>
+  </si>
+  <si>
+    <t>弗莱迪-9星</t>
+  </si>
+  <si>
+    <t>弗莱迪-10星</t>
+  </si>
+  <si>
+    <t>弗莱迪-11星</t>
+  </si>
+  <si>
+    <t>卢瑟-6星</t>
+  </si>
+  <si>
+    <t>卢瑟-7星</t>
+  </si>
+  <si>
+    <t>卢瑟-8星</t>
+  </si>
+  <si>
+    <t>卢瑟-9星</t>
+  </si>
+  <si>
+    <t>卢瑟-10星</t>
+  </si>
+  <si>
+    <t>卢瑟-11星</t>
+  </si>
+  <si>
+    <t>逆闪电-6星</t>
+  </si>
+  <si>
+    <t>逆闪电-7星</t>
+  </si>
+  <si>
+    <t>逆闪电-8星</t>
+  </si>
+  <si>
+    <t>逆闪电-9星</t>
+  </si>
+  <si>
+    <t>逆闪电-10星</t>
+  </si>
+  <si>
+    <t>逆闪电-11星</t>
+  </si>
+  <si>
+    <t>小丑女-6星</t>
+  </si>
+  <si>
+    <t>小丑女-7星</t>
+  </si>
+  <si>
+    <t>小丑女-8星</t>
+  </si>
+  <si>
+    <t>小丑女-9星</t>
+  </si>
+  <si>
+    <t>小丑女-10星</t>
+  </si>
+  <si>
+    <t>小丑女-11星</t>
+  </si>
+  <si>
+    <t>死侍-6星</t>
+  </si>
+  <si>
+    <t>死侍-7星</t>
+  </si>
+  <si>
+    <t>死侍-8星</t>
+  </si>
+  <si>
+    <t>死侍-9星</t>
+  </si>
+  <si>
+    <t>死侍-10星</t>
+  </si>
+  <si>
+    <t>死侍-11星</t>
+  </si>
+  <si>
+    <t>洛基-6星</t>
+  </si>
+  <si>
+    <t>洛基-7星</t>
+  </si>
+  <si>
+    <t>洛基-8星</t>
+  </si>
+  <si>
+    <t>洛基-9星</t>
+  </si>
+  <si>
+    <t>洛基-10星</t>
+  </si>
+  <si>
+    <t>洛基-11星</t>
+  </si>
+  <si>
+    <t>灭霸-6星</t>
+  </si>
+  <si>
+    <t>灭霸-7星</t>
+  </si>
+  <si>
+    <t>灭霸-8星</t>
+  </si>
+  <si>
+    <t>灭霸-9星</t>
+  </si>
+  <si>
+    <t>灭霸-10星</t>
+  </si>
+  <si>
+    <t>灭霸-11星</t>
+  </si>
+  <si>
+    <t>地狱男爵-6星</t>
+  </si>
+  <si>
+    <t>地狱男爵-7星</t>
+  </si>
+  <si>
+    <t>地狱男爵-8星</t>
+  </si>
+  <si>
+    <t>地狱男爵-9星</t>
+  </si>
+  <si>
+    <t>地狱男爵-10星</t>
+  </si>
+  <si>
+    <t>地狱男爵-11星</t>
+  </si>
+  <si>
+    <t>毒液-6星</t>
+  </si>
+  <si>
+    <t>毒液-7星</t>
+  </si>
+  <si>
+    <t>毒液-8星</t>
+  </si>
+  <si>
+    <t>毒液-9星</t>
+  </si>
+  <si>
+    <t>毒液-10星</t>
+  </si>
+  <si>
+    <t>毒液-11星</t>
+  </si>
+  <si>
+    <t>黑凤凰-6星</t>
+  </si>
+  <si>
+    <t>黑凤凰-7星</t>
+  </si>
+  <si>
+    <t>黑凤凰-8星</t>
+  </si>
+  <si>
+    <t>黑凤凰-9星</t>
+  </si>
+  <si>
+    <t>黑凤凰-10星</t>
+  </si>
+  <si>
+    <t>黑凤凰-11星</t>
+  </si>
+  <si>
+    <t>罗宾-6星</t>
+  </si>
+  <si>
+    <t>罗宾-7星</t>
+  </si>
+  <si>
+    <t>罗宾-8星</t>
+  </si>
+  <si>
+    <t>罗宾-9星</t>
+  </si>
+  <si>
+    <t>罗宾-10星</t>
+  </si>
+  <si>
+    <t>罗宾-11星</t>
+  </si>
+  <si>
+    <t>秘客-6星</t>
+  </si>
+  <si>
+    <t>秘客-7星</t>
+  </si>
+  <si>
+    <t>秘客-8星</t>
+  </si>
+  <si>
+    <t>秘客-9星</t>
+  </si>
+  <si>
+    <t>秘客-10星</t>
+  </si>
+  <si>
+    <t>秘客-11星</t>
+  </si>
+  <si>
+    <t>海王-6星</t>
+  </si>
+  <si>
+    <t>海王-7星</t>
+  </si>
+  <si>
+    <t>海王-8星</t>
+  </si>
+  <si>
+    <t>海王-9星</t>
+  </si>
+  <si>
+    <t>海王-10星</t>
+  </si>
+  <si>
+    <t>海王-11星</t>
+  </si>
+  <si>
+    <t>黑豹-6星</t>
+  </si>
+  <si>
+    <t>黑豹-7星</t>
+  </si>
+  <si>
+    <t>黑豹-8星</t>
+  </si>
+  <si>
+    <t>黑豹-9星</t>
+  </si>
+  <si>
+    <t>黑豹-10星</t>
+  </si>
+  <si>
+    <t>黑豹-11星</t>
+  </si>
+  <si>
+    <t>钢铁侠-6星</t>
+  </si>
+  <si>
+    <t>钢铁侠-7星</t>
+  </si>
+  <si>
+    <t>钢铁侠-8星</t>
+  </si>
+  <si>
+    <t>钢铁侠-9星</t>
+  </si>
+  <si>
+    <t>钢铁侠-10星</t>
+  </si>
+  <si>
+    <t>钢铁侠-11星</t>
+  </si>
+  <si>
+    <t>美队-6星</t>
+  </si>
+  <si>
+    <t>美队-7星</t>
+  </si>
+  <si>
+    <t>美队-8星</t>
+  </si>
+  <si>
+    <t>美队-9星</t>
+  </si>
+  <si>
+    <t>美队-10星</t>
+  </si>
+  <si>
+    <t>美队-11星</t>
+  </si>
+  <si>
+    <t>蜘蛛侠-6星</t>
+  </si>
+  <si>
+    <t>蜘蛛侠-7星</t>
+  </si>
+  <si>
+    <t>蜘蛛侠-8星</t>
+  </si>
+  <si>
+    <t>蜘蛛侠-9星</t>
+  </si>
+  <si>
+    <t>蜘蛛侠-10星</t>
+  </si>
+  <si>
+    <t>蜘蛛侠-11星</t>
+  </si>
+  <si>
+    <t>半藏-6星</t>
+  </si>
+  <si>
+    <t>半藏-7星</t>
+  </si>
+  <si>
+    <t>半藏-8星</t>
+  </si>
+  <si>
+    <t>半藏-9星</t>
+  </si>
+  <si>
+    <t>半藏-10星</t>
+  </si>
+  <si>
+    <t>半藏-11星</t>
+  </si>
+  <si>
+    <t>上气-6星</t>
+  </si>
+  <si>
+    <t>上气-7星</t>
+  </si>
+  <si>
+    <t>上气-8星</t>
+  </si>
+  <si>
+    <t>上气-9星</t>
+  </si>
+  <si>
+    <t>上气-10星</t>
+  </si>
+  <si>
+    <t>上气-11星</t>
+  </si>
+  <si>
+    <t>貂蝉-6星</t>
+  </si>
+  <si>
+    <t>貂蝉-7星</t>
+  </si>
+  <si>
+    <t>貂蝉-8星</t>
+  </si>
+  <si>
+    <t>貂蝉-9星</t>
+  </si>
+  <si>
+    <t>貂蝉-10星</t>
+  </si>
+  <si>
+    <t>貂蝉-11星</t>
+  </si>
+  <si>
+    <t>熊猫-6星</t>
+  </si>
+  <si>
+    <t>熊猫-7星</t>
+  </si>
+  <si>
+    <t>熊猫-8星</t>
+  </si>
+  <si>
+    <t>熊猫-9星</t>
+  </si>
+  <si>
+    <t>熊猫-10星</t>
+  </si>
+  <si>
+    <t>熊猫-11星</t>
+  </si>
+  <si>
+    <t>鸣人-6星</t>
+  </si>
+  <si>
+    <t>鸣人-7星</t>
+  </si>
+  <si>
+    <t>鸣人-8星</t>
+  </si>
+  <si>
+    <t>鸣人-9星</t>
+  </si>
+  <si>
+    <t>鸣人-10星</t>
+  </si>
+  <si>
+    <t>鸣人-11星</t>
+  </si>
+  <si>
+    <t>猴子-6星</t>
+  </si>
+  <si>
+    <t>猴子-7星</t>
+  </si>
+  <si>
+    <t>猴子-8星</t>
+  </si>
+  <si>
+    <t>猴子-9星</t>
+  </si>
+  <si>
+    <t>猴子-10星</t>
+  </si>
+  <si>
+    <t>猴子-11星</t>
+  </si>
+  <si>
+    <t>承太郎-6星</t>
+  </si>
+  <si>
+    <t>承太郎-7星</t>
+  </si>
+  <si>
+    <t>承太郎-8星</t>
+  </si>
+  <si>
+    <t>承太郎-9星</t>
+  </si>
+  <si>
+    <t>承太郎-10星</t>
+  </si>
+  <si>
+    <t>承太郎-11星</t>
+  </si>
+  <si>
+    <t>美杜莎-6星</t>
+  </si>
+  <si>
+    <t>美杜莎-7星</t>
+  </si>
+  <si>
+    <t>美杜莎-8星</t>
+  </si>
+  <si>
+    <t>美杜莎-9星</t>
+  </si>
+  <si>
+    <t>美杜莎-10星</t>
+  </si>
+  <si>
+    <t>美杜莎-11星</t>
+  </si>
+  <si>
+    <t>杰克-6星</t>
+  </si>
+  <si>
+    <t>杰克-7星</t>
+  </si>
+  <si>
+    <t>杰克-8星</t>
+  </si>
+  <si>
+    <t>杰克-9星</t>
+  </si>
+  <si>
+    <t>杰克-10星</t>
+  </si>
+  <si>
+    <t>杰克-11星</t>
+  </si>
+  <si>
+    <t>铁血-6星</t>
+  </si>
+  <si>
+    <t>铁血-7星</t>
+  </si>
+  <si>
+    <t>铁血-8星</t>
+  </si>
+  <si>
+    <t>铁血-9星</t>
+  </si>
+  <si>
+    <t>铁血-10星</t>
+  </si>
+  <si>
+    <t>铁血-11星</t>
+  </si>
+  <si>
+    <t>林克-6星</t>
+  </si>
+  <si>
+    <t>林克-7星</t>
+  </si>
+  <si>
+    <t>林克-8星</t>
+  </si>
+  <si>
+    <t>林克-9星</t>
+  </si>
+  <si>
+    <t>林克-10星</t>
+  </si>
+  <si>
+    <t>林克-11星</t>
+  </si>
+  <si>
+    <t>杰洛特-6星</t>
+  </si>
+  <si>
+    <t>杰洛特-7星</t>
+  </si>
+  <si>
+    <t>杰洛特-8星</t>
+  </si>
+  <si>
+    <t>杰洛特-9星</t>
+  </si>
+  <si>
+    <t>杰洛特-10星</t>
+  </si>
+  <si>
+    <t>杰洛特-11星</t>
+  </si>
+  <si>
+    <t>奎爷-6星</t>
+  </si>
+  <si>
+    <t>奎爷-7星</t>
+  </si>
+  <si>
+    <t>奎爷-8星</t>
+  </si>
+  <si>
+    <t>奎爷-9星</t>
+  </si>
+  <si>
+    <t>奎爷-10星</t>
+  </si>
+  <si>
+    <t>奎爷-11星</t>
+  </si>
+  <si>
+    <t>范海辛-6星</t>
+  </si>
+  <si>
+    <t>范海辛-7星</t>
+  </si>
+  <si>
+    <t>范海辛-8星</t>
+  </si>
+  <si>
+    <t>范海辛-9星</t>
+  </si>
+  <si>
+    <t>范海辛-10星</t>
+  </si>
+  <si>
+    <t>范海辛-11星</t>
+  </si>
+  <si>
+    <t>大黄蜂-6星</t>
+  </si>
+  <si>
+    <t>大黄蜂-7星</t>
+  </si>
+  <si>
+    <t>大黄蜂-8星</t>
+  </si>
+  <si>
+    <t>大黄蜂-9星</t>
+  </si>
+  <si>
+    <t>大黄蜂-10星</t>
+  </si>
+  <si>
+    <t>大黄蜂-11星</t>
+  </si>
+  <si>
+    <t>2B-6星</t>
+  </si>
+  <si>
+    <t>2B-7星</t>
+  </si>
+  <si>
+    <t>2B-8星</t>
+  </si>
+  <si>
+    <t>2B-9星</t>
+  </si>
+  <si>
+    <t>2B-10星</t>
+  </si>
+  <si>
+    <t>2B-11星</t>
+  </si>
+  <si>
+    <t>高达-6星</t>
+  </si>
+  <si>
+    <t>高达-7星</t>
+  </si>
+  <si>
+    <t>高达-8星</t>
+  </si>
+  <si>
+    <t>高达-9星</t>
+  </si>
+  <si>
+    <t>高达-10星</t>
+  </si>
+  <si>
+    <t>高达-11星</t>
+  </si>
+  <si>
+    <t>阿利塔-6星</t>
+  </si>
+  <si>
+    <t>阿利塔-7星</t>
+  </si>
+  <si>
+    <t>阿利塔-8星</t>
+  </si>
+  <si>
+    <t>阿利塔-9星</t>
+  </si>
+  <si>
+    <t>阿利塔-10星</t>
+  </si>
+  <si>
+    <t>阿利塔-11星</t>
+  </si>
+  <si>
+    <t>红扎古-6星</t>
+  </si>
+  <si>
+    <t>红扎古-7星</t>
+  </si>
+  <si>
+    <t>红扎古-8星</t>
+  </si>
+  <si>
+    <t>红扎古-9星</t>
+  </si>
+  <si>
+    <t>红扎古-10星</t>
+  </si>
+  <si>
+    <t>红扎古-11星</t>
+  </si>
+  <si>
+    <t>擎天柱-6星</t>
+  </si>
+  <si>
+    <t>擎天柱-7星</t>
+  </si>
+  <si>
+    <t>擎天柱-8星</t>
+  </si>
+  <si>
+    <t>擎天柱-9星</t>
+  </si>
+  <si>
+    <t>擎天柱-10星</t>
+  </si>
+  <si>
+    <t>擎天柱-11星</t>
+  </si>
+  <si>
+    <t>初音-6星</t>
+  </si>
+  <si>
+    <t>初音-7星</t>
+  </si>
+  <si>
+    <t>初音-8星</t>
+  </si>
+  <si>
+    <t>初音-9星</t>
+  </si>
+  <si>
+    <t>初音-10星</t>
+  </si>
+  <si>
+    <t>初音-11星</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1754,10 @@
   <dimension ref="A1:AB284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E271" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:AB284"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2213,7 +2888,7 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1">
         <v>1051</v>
@@ -2225,7 +2900,7 @@
         <v>1101</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
@@ -2256,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -2297,7 +2972,7 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="B16" s="1">
         <v>1101</v>
@@ -2309,7 +2984,7 @@
         <v>1151</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
@@ -2340,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -2381,7 +3056,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="B17" s="1">
         <v>1151</v>
@@ -2393,7 +3068,7 @@
         <v>1201</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
@@ -2424,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -2465,7 +3140,7 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="B18" s="1">
         <v>1201</v>
@@ -2477,7 +3152,7 @@
         <v>1251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -2508,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -2549,7 +3224,7 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="B19" s="1">
         <v>1251</v>
@@ -2561,7 +3236,7 @@
         <v>1301</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
@@ -2592,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -2633,7 +3308,7 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B20" s="1">
         <v>1301</v>
@@ -2645,7 +3320,7 @@
         <v>1351</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
@@ -2676,7 +3351,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
@@ -2717,7 +3392,7 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="B21" s="1">
         <v>1052</v>
@@ -2729,7 +3404,7 @@
         <v>1102</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
@@ -2760,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
@@ -2801,7 +3476,7 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B22" s="1">
         <v>1102</v>
@@ -2813,7 +3488,7 @@
         <v>1152</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -2844,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
@@ -2885,7 +3560,7 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1">
         <v>1152</v>
@@ -2897,7 +3572,7 @@
         <v>1202</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
@@ -2928,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
@@ -2969,7 +3644,7 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="B24" s="1">
         <v>1202</v>
@@ -2981,7 +3656,7 @@
         <v>1252</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
@@ -3012,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
@@ -3053,7 +3728,7 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1">
         <v>1252</v>
@@ -3065,7 +3740,7 @@
         <v>1302</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
@@ -3096,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
@@ -3137,7 +3812,7 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1">
         <v>1302</v>
@@ -3149,7 +3824,7 @@
         <v>1352</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
@@ -3180,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
@@ -3221,7 +3896,7 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="B27" s="1">
         <v>1053</v>
@@ -3233,7 +3908,7 @@
         <v>1103</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
@@ -3264,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
@@ -3305,7 +3980,7 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="B28" s="1">
         <v>1103</v>
@@ -3317,7 +3992,7 @@
         <v>1153</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
@@ -3348,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
@@ -3389,7 +4064,7 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B29" s="1">
         <v>1153</v>
@@ -3401,7 +4076,7 @@
         <v>1203</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
@@ -3432,7 +4107,7 @@
         <v>3</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
@@ -3473,7 +4148,7 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="1" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="B30" s="1">
         <v>1203</v>
@@ -3485,7 +4160,7 @@
         <v>1253</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
@@ -3516,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
@@ -3557,7 +4232,7 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="B31" s="1">
         <v>1253</v>
@@ -3569,7 +4244,7 @@
         <v>1303</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
@@ -3600,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
@@ -3641,7 +4316,7 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B32" s="1">
         <v>1303</v>
@@ -3653,7 +4328,7 @@
         <v>1353</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1">
@@ -3684,7 +4359,7 @@
         <v>6</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
@@ -3725,7 +4400,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B33" s="1">
         <v>1054</v>
@@ -3737,7 +4412,7 @@
         <v>1104</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
@@ -3768,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
@@ -3809,7 +4484,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="B34" s="1">
         <v>1104</v>
@@ -3821,7 +4496,7 @@
         <v>1154</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1">
@@ -3852,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q34" s="1">
         <v>0</v>
@@ -3893,7 +4568,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="B35" s="1">
         <v>1154</v>
@@ -3905,7 +4580,7 @@
         <v>1204</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
@@ -3936,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
@@ -3977,7 +4652,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="B36" s="1">
         <v>1204</v>
@@ -3989,7 +4664,7 @@
         <v>1254</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
@@ -4020,7 +4695,7 @@
         <v>4</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q36" s="1">
         <v>0</v>
@@ -4061,7 +4736,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="B37" s="1">
         <v>1254</v>
@@ -4073,7 +4748,7 @@
         <v>1304</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
@@ -4104,7 +4779,7 @@
         <v>5</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q37" s="1">
         <v>0</v>
@@ -4145,7 +4820,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="B38" s="1">
         <v>1304</v>
@@ -4157,7 +4832,7 @@
         <v>1354</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
@@ -4188,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q38" s="1">
         <v>0</v>
@@ -4229,7 +4904,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="B39" s="1">
         <v>1055</v>
@@ -4241,7 +4916,7 @@
         <v>1105</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
@@ -4272,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q39" s="1">
         <v>0</v>
@@ -4313,7 +4988,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="B40" s="1">
         <v>1105</v>
@@ -4325,7 +5000,7 @@
         <v>1155</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
@@ -4356,7 +5031,7 @@
         <v>2</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q40" s="1">
         <v>0</v>
@@ -4397,7 +5072,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="B41" s="1">
         <v>1155</v>
@@ -4409,7 +5084,7 @@
         <v>1205</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1">
@@ -4440,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
@@ -4481,7 +5156,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="B42" s="1">
         <v>1205</v>
@@ -4493,7 +5168,7 @@
         <v>1255</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
@@ -4524,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q42" s="1">
         <v>0</v>
@@ -4565,7 +5240,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="B43" s="1">
         <v>1255</v>
@@ -4577,7 +5252,7 @@
         <v>1305</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
@@ -4608,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q43" s="1">
         <v>0</v>
@@ -4649,7 +5324,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="B44" s="1">
         <v>1305</v>
@@ -4661,7 +5336,7 @@
         <v>1355</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
@@ -4692,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q44" s="1">
         <v>0</v>
@@ -4733,7 +5408,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="B45" s="1">
         <v>1056</v>
@@ -4745,7 +5420,7 @@
         <v>1106</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1">
@@ -4776,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q45" s="1">
         <v>0</v>
@@ -4817,7 +5492,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="B46" s="1">
         <v>1106</v>
@@ -4829,7 +5504,7 @@
         <v>1156</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
@@ -4860,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q46" s="1">
         <v>0</v>
@@ -4901,7 +5576,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="B47" s="1">
         <v>1156</v>
@@ -4913,7 +5588,7 @@
         <v>1206</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1">
@@ -4944,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q47" s="1">
         <v>0</v>
@@ -4985,7 +5660,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="B48" s="1">
         <v>1206</v>
@@ -4997,7 +5672,7 @@
         <v>1256</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
@@ -5028,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q48" s="1">
         <v>0</v>
@@ -5069,7 +5744,7 @@
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1">
         <v>1256</v>
@@ -5081,7 +5756,7 @@
         <v>1306</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
@@ -5112,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q49" s="1">
         <v>0</v>
@@ -5153,7 +5828,7 @@
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="B50" s="1">
         <v>1306</v>
@@ -5165,7 +5840,7 @@
         <v>1356</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1">
@@ -5196,7 +5871,7 @@
         <v>6</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q50" s="1">
         <v>0</v>
@@ -5237,7 +5912,7 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="1" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="B51" s="1">
         <v>1057</v>
@@ -5249,7 +5924,7 @@
         <v>1107</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1">
@@ -5280,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q51" s="1">
         <v>0</v>
@@ -5321,7 +5996,7 @@
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="1" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="B52" s="1">
         <v>1107</v>
@@ -5333,7 +6008,7 @@
         <v>1157</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
@@ -5364,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q52" s="1">
         <v>0</v>
@@ -5405,7 +6080,7 @@
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="1" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="B53" s="1">
         <v>1157</v>
@@ -5417,7 +6092,7 @@
         <v>1207</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1">
@@ -5448,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q53" s="1">
         <v>0</v>
@@ -5489,7 +6164,7 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="B54" s="1">
         <v>1207</v>
@@ -5501,7 +6176,7 @@
         <v>1257</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1">
@@ -5532,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q54" s="1">
         <v>0</v>
@@ -5573,7 +6248,7 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="B55" s="1">
         <v>1257</v>
@@ -5585,7 +6260,7 @@
         <v>1307</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1">
@@ -5616,7 +6291,7 @@
         <v>5</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q55" s="1">
         <v>0</v>
@@ -5657,7 +6332,7 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="B56" s="1">
         <v>1307</v>
@@ -5669,7 +6344,7 @@
         <v>1357</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1">
@@ -5700,7 +6375,7 @@
         <v>6</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q56" s="1">
         <v>0</v>
@@ -5741,7 +6416,7 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B57" s="1">
         <v>1059</v>
@@ -5753,7 +6428,7 @@
         <v>1109</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1">
@@ -5784,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q57" s="1">
         <v>0</v>
@@ -5825,7 +6500,7 @@
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="B58" s="1">
         <v>1109</v>
@@ -5837,7 +6512,7 @@
         <v>1159</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
@@ -5868,7 +6543,7 @@
         <v>2</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q58" s="1">
         <v>0</v>
@@ -5909,7 +6584,7 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="B59" s="1">
         <v>1159</v>
@@ -5921,7 +6596,7 @@
         <v>1209</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
@@ -5952,7 +6627,7 @@
         <v>3</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q59" s="1">
         <v>0</v>
@@ -5993,7 +6668,7 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="B60" s="1">
         <v>1209</v>
@@ -6005,7 +6680,7 @@
         <v>1259</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1">
@@ -6036,7 +6711,7 @@
         <v>4</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q60" s="1">
         <v>0</v>
@@ -6077,7 +6752,7 @@
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="1" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="B61" s="1">
         <v>1259</v>
@@ -6089,7 +6764,7 @@
         <v>1309</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1">
@@ -6120,7 +6795,7 @@
         <v>5</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q61" s="1">
         <v>0</v>
@@ -6161,7 +6836,7 @@
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="B62" s="1">
         <v>1309</v>
@@ -6173,7 +6848,7 @@
         <v>1359</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1">
@@ -6204,7 +6879,7 @@
         <v>6</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q62" s="1">
         <v>0</v>
@@ -6245,7 +6920,7 @@
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="1" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B63" s="1">
         <v>2051</v>
@@ -6257,7 +6932,7 @@
         <v>2101</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1">
@@ -6288,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q63" s="1">
         <v>0</v>
@@ -6329,7 +7004,7 @@
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="1" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B64" s="1">
         <v>2101</v>
@@ -6341,7 +7016,7 @@
         <v>2151</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1">
@@ -6372,7 +7047,7 @@
         <v>2</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q64" s="1">
         <v>0</v>
@@ -6413,7 +7088,7 @@
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="1" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="B65" s="1">
         <v>2151</v>
@@ -6425,7 +7100,7 @@
         <v>2201</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1">
@@ -6456,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q65" s="1">
         <v>0</v>
@@ -6497,7 +7172,7 @@
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="1" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="B66" s="1">
         <v>2201</v>
@@ -6509,7 +7184,7 @@
         <v>2251</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1">
@@ -6540,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q66" s="1">
         <v>0</v>
@@ -6581,7 +7256,7 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="B67" s="1">
         <v>2251</v>
@@ -6593,7 +7268,7 @@
         <v>2301</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1">
@@ -6624,7 +7299,7 @@
         <v>5</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q67" s="1">
         <v>0</v>
@@ -6665,7 +7340,7 @@
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="B68" s="1">
         <v>2301</v>
@@ -6677,7 +7352,7 @@
         <v>2351</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1">
@@ -6708,7 +7383,7 @@
         <v>6</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Q68" s="1">
         <v>0</v>
@@ -6749,7 +7424,7 @@
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="B69" s="1">
         <v>2052</v>
@@ -6761,7 +7436,7 @@
         <v>2102</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1">
@@ -6792,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q69" s="1">
         <v>0</v>
@@ -6833,7 +7508,7 @@
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="B70" s="1">
         <v>2102</v>
@@ -6845,7 +7520,7 @@
         <v>2152</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1">
@@ -6876,7 +7551,7 @@
         <v>2</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q70" s="1">
         <v>0</v>
@@ -6917,7 +7592,7 @@
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="1" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="B71" s="1">
         <v>2152</v>
@@ -6929,7 +7604,7 @@
         <v>2202</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1">
@@ -6960,7 +7635,7 @@
         <v>3</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q71" s="1">
         <v>0</v>
@@ -7001,7 +7676,7 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="1" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="B72" s="1">
         <v>2202</v>
@@ -7013,7 +7688,7 @@
         <v>2252</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1">
@@ -7044,7 +7719,7 @@
         <v>4</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q72" s="1">
         <v>0</v>
@@ -7085,7 +7760,7 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="1" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B73" s="1">
         <v>2252</v>
@@ -7097,7 +7772,7 @@
         <v>2302</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1">
@@ -7128,7 +7803,7 @@
         <v>5</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q73" s="1">
         <v>0</v>
@@ -7169,7 +7844,7 @@
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="1" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="B74" s="1">
         <v>2302</v>
@@ -7181,7 +7856,7 @@
         <v>2352</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1">
@@ -7212,7 +7887,7 @@
         <v>6</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q74" s="1">
         <v>0</v>
@@ -7253,7 +7928,7 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="1" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="B75" s="1">
         <v>2053</v>
@@ -7265,7 +7940,7 @@
         <v>2103</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1">
@@ -7296,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q75" s="1">
         <v>0</v>
@@ -7337,7 +8012,7 @@
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="1" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="B76" s="1">
         <v>2103</v>
@@ -7349,7 +8024,7 @@
         <v>2153</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1">
@@ -7380,7 +8055,7 @@
         <v>2</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q76" s="1">
         <v>0</v>
@@ -7421,7 +8096,7 @@
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="1" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="B77" s="1">
         <v>2153</v>
@@ -7433,7 +8108,7 @@
         <v>2203</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1">
@@ -7464,7 +8139,7 @@
         <v>3</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q77" s="1">
         <v>0</v>
@@ -7505,7 +8180,7 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="B78" s="1">
         <v>2203</v>
@@ -7517,7 +8192,7 @@
         <v>2253</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1">
@@ -7548,7 +8223,7 @@
         <v>4</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q78" s="1">
         <v>0</v>
@@ -7589,7 +8264,7 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="1" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="B79" s="1">
         <v>2253</v>
@@ -7601,7 +8276,7 @@
         <v>2303</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1">
@@ -7632,7 +8307,7 @@
         <v>5</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q79" s="1">
         <v>0</v>
@@ -7673,7 +8348,7 @@
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="1" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="B80" s="1">
         <v>2303</v>
@@ -7685,7 +8360,7 @@
         <v>2353</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1">
@@ -7716,7 +8391,7 @@
         <v>6</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q80" s="1">
         <v>0</v>
@@ -7757,7 +8432,7 @@
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="1" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="B81" s="1">
         <v>2054</v>
@@ -7769,7 +8444,7 @@
         <v>2104</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1">
@@ -7800,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q81" s="1">
         <v>0</v>
@@ -7841,7 +8516,7 @@
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="1" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="B82" s="1">
         <v>2104</v>
@@ -7853,7 +8528,7 @@
         <v>2154</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1">
@@ -7884,7 +8559,7 @@
         <v>2</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q82" s="1">
         <v>0</v>
@@ -7925,7 +8600,7 @@
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="1" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="B83" s="1">
         <v>2154</v>
@@ -7937,7 +8612,7 @@
         <v>2204</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1">
@@ -7968,7 +8643,7 @@
         <v>3</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q83" s="1">
         <v>0</v>
@@ -8009,7 +8684,7 @@
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="1" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="B84" s="1">
         <v>2204</v>
@@ -8021,7 +8696,7 @@
         <v>2254</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1">
@@ -8052,7 +8727,7 @@
         <v>4</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q84" s="1">
         <v>0</v>
@@ -8093,7 +8768,7 @@
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="1" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="B85" s="1">
         <v>2254</v>
@@ -8105,7 +8780,7 @@
         <v>2304</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1">
@@ -8136,7 +8811,7 @@
         <v>5</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q85" s="1">
         <v>0</v>
@@ -8177,7 +8852,7 @@
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="1" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="B86" s="1">
         <v>2304</v>
@@ -8189,7 +8864,7 @@
         <v>2354</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1">
@@ -8220,7 +8895,7 @@
         <v>6</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q86" s="1">
         <v>0</v>
@@ -8261,7 +8936,7 @@
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="1" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="B87" s="1">
         <v>2055</v>
@@ -8273,7 +8948,7 @@
         <v>2105</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1">
@@ -8304,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q87" s="1">
         <v>0</v>
@@ -8345,7 +9020,7 @@
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="1" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="B88" s="1">
         <v>2105</v>
@@ -8357,7 +9032,7 @@
         <v>2155</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1">
@@ -8388,7 +9063,7 @@
         <v>2</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q88" s="1">
         <v>0</v>
@@ -8429,7 +9104,7 @@
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="1" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="B89" s="1">
         <v>2155</v>
@@ -8441,7 +9116,7 @@
         <v>2205</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1">
@@ -8472,7 +9147,7 @@
         <v>3</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q89" s="1">
         <v>0</v>
@@ -8513,7 +9188,7 @@
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="1" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="B90" s="1">
         <v>2205</v>
@@ -8525,7 +9200,7 @@
         <v>2255</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1">
@@ -8556,7 +9231,7 @@
         <v>4</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q90" s="1">
         <v>0</v>
@@ -8597,7 +9272,7 @@
     </row>
     <row r="91" spans="1:28">
       <c r="A91" s="1" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="B91" s="1">
         <v>2255</v>
@@ -8609,7 +9284,7 @@
         <v>2305</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1">
@@ -8640,7 +9315,7 @@
         <v>5</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q91" s="1">
         <v>0</v>
@@ -8681,7 +9356,7 @@
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="1" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="B92" s="1">
         <v>2305</v>
@@ -8693,7 +9368,7 @@
         <v>2355</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1">
@@ -8724,7 +9399,7 @@
         <v>6</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q92" s="1">
         <v>0</v>
@@ -8765,7 +9440,7 @@
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="1" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="B93" s="1">
         <v>2056</v>
@@ -8777,7 +9452,7 @@
         <v>2106</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1">
@@ -8808,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q93" s="1">
         <v>0</v>
@@ -8849,7 +9524,7 @@
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="1" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="B94" s="1">
         <v>2106</v>
@@ -8861,7 +9536,7 @@
         <v>2156</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1">
@@ -8892,7 +9567,7 @@
         <v>2</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q94" s="1">
         <v>0</v>
@@ -8933,7 +9608,7 @@
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="1" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="B95" s="1">
         <v>2156</v>
@@ -8945,7 +9620,7 @@
         <v>2206</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1">
@@ -8976,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q95" s="1">
         <v>0</v>
@@ -9017,7 +9692,7 @@
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="1" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="B96" s="1">
         <v>2206</v>
@@ -9029,7 +9704,7 @@
         <v>2256</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1">
@@ -9060,7 +9735,7 @@
         <v>4</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q96" s="1">
         <v>0</v>
@@ -9101,7 +9776,7 @@
     </row>
     <row r="97" spans="1:28">
       <c r="A97" s="1" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="B97" s="1">
         <v>2256</v>
@@ -9113,7 +9788,7 @@
         <v>2306</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1">
@@ -9144,7 +9819,7 @@
         <v>5</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q97" s="1">
         <v>0</v>
@@ -9185,7 +9860,7 @@
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="1" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="B98" s="1">
         <v>2306</v>
@@ -9197,7 +9872,7 @@
         <v>2356</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1">
@@ -9228,7 +9903,7 @@
         <v>6</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q98" s="1">
         <v>0</v>
@@ -9269,7 +9944,7 @@
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="1" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="B99" s="1">
         <v>2057</v>
@@ -9281,7 +9956,7 @@
         <v>2107</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1">
@@ -9312,7 +9987,7 @@
         <v>1</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="Q99" s="1">
         <v>0</v>
@@ -9353,7 +10028,7 @@
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="1" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="B100" s="1">
         <v>2107</v>
@@ -9365,7 +10040,7 @@
         <v>2157</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1">
@@ -9396,7 +10071,7 @@
         <v>2</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="Q100" s="1">
         <v>0</v>
@@ -9437,7 +10112,7 @@
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="1" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="B101" s="1">
         <v>2157</v>
@@ -9449,7 +10124,7 @@
         <v>2207</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1">
@@ -9480,7 +10155,7 @@
         <v>3</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="Q101" s="1">
         <v>0</v>
@@ -9521,7 +10196,7 @@
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="1" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="B102" s="1">
         <v>2207</v>
@@ -9533,7 +10208,7 @@
         <v>2257</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1">
@@ -9564,7 +10239,7 @@
         <v>4</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="Q102" s="1">
         <v>0</v>
@@ -9605,7 +10280,7 @@
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="1" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="B103" s="1">
         <v>2257</v>
@@ -9617,7 +10292,7 @@
         <v>2307</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1">
@@ -9648,7 +10323,7 @@
         <v>5</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="Q103" s="1">
         <v>0</v>
@@ -9689,7 +10364,7 @@
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="1" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="B104" s="1">
         <v>2307</v>
@@ -9701,7 +10376,7 @@
         <v>2357</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1">
@@ -9732,7 +10407,7 @@
         <v>6</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="Q104" s="1">
         <v>0</v>
@@ -9773,7 +10448,7 @@
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="1" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="B105" s="1">
         <v>2058</v>
@@ -9785,7 +10460,7 @@
         <v>2108</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1">
@@ -9816,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="Q105" s="1">
         <v>0</v>
@@ -9857,7 +10532,7 @@
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="1" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="B106" s="1">
         <v>2108</v>
@@ -9869,7 +10544,7 @@
         <v>2158</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1">
@@ -9900,7 +10575,7 @@
         <v>2</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="Q106" s="1">
         <v>0</v>
@@ -9941,7 +10616,7 @@
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="1" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="B107" s="1">
         <v>2158</v>
@@ -9953,7 +10628,7 @@
         <v>2208</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1">
@@ -9984,7 +10659,7 @@
         <v>3</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="Q107" s="1">
         <v>0</v>
@@ -10025,7 +10700,7 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="1" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="B108" s="1">
         <v>2208</v>
@@ -10037,7 +10712,7 @@
         <v>2258</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1">
@@ -10068,7 +10743,7 @@
         <v>4</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="Q108" s="1">
         <v>0</v>
@@ -10109,7 +10784,7 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="1" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="B109" s="1">
         <v>2258</v>
@@ -10121,7 +10796,7 @@
         <v>2308</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1">
@@ -10152,7 +10827,7 @@
         <v>5</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="Q109" s="1">
         <v>0</v>
@@ -10193,7 +10868,7 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="1" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="B110" s="1">
         <v>2308</v>
@@ -10205,7 +10880,7 @@
         <v>2358</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1">
@@ -10236,7 +10911,7 @@
         <v>6</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="Q110" s="1">
         <v>0</v>
@@ -10277,7 +10952,7 @@
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="1" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="B111" s="1">
         <v>2059</v>
@@ -10289,7 +10964,7 @@
         <v>2109</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1">
@@ -10320,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q111" s="1">
         <v>0</v>
@@ -10361,7 +11036,7 @@
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="1" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="B112" s="1">
         <v>2109</v>
@@ -10373,7 +11048,7 @@
         <v>2159</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1">
@@ -10404,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q112" s="1">
         <v>0</v>
@@ -10445,7 +11120,7 @@
     </row>
     <row r="113" spans="1:28">
       <c r="A113" s="1" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="B113" s="1">
         <v>2159</v>
@@ -10457,7 +11132,7 @@
         <v>2209</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1">
@@ -10488,7 +11163,7 @@
         <v>3</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q113" s="1">
         <v>0</v>
@@ -10529,7 +11204,7 @@
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="1" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="B114" s="1">
         <v>2209</v>
@@ -10541,7 +11216,7 @@
         <v>2259</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1">
@@ -10572,7 +11247,7 @@
         <v>4</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q114" s="1">
         <v>0</v>
@@ -10613,7 +11288,7 @@
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="1" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="B115" s="1">
         <v>2259</v>
@@ -10625,7 +11300,7 @@
         <v>2309</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1">
@@ -10656,7 +11331,7 @@
         <v>5</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q115" s="1">
         <v>0</v>
@@ -10697,7 +11372,7 @@
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="1" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="B116" s="1">
         <v>2309</v>
@@ -10709,7 +11384,7 @@
         <v>2359</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1">
@@ -10740,7 +11415,7 @@
         <v>6</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q116" s="1">
         <v>0</v>
@@ -10781,7 +11456,7 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="1" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="B117" s="1">
         <v>3051</v>
@@ -10793,7 +11468,7 @@
         <v>3101</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1">
@@ -10824,7 +11499,7 @@
         <v>1</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="Q117" s="1">
         <v>0</v>
@@ -10865,7 +11540,7 @@
     </row>
     <row r="118" spans="1:28">
       <c r="A118" s="1" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="B118" s="1">
         <v>3101</v>
@@ -10877,7 +11552,7 @@
         <v>3151</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1">
@@ -10908,7 +11583,7 @@
         <v>2</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="Q118" s="1">
         <v>0</v>
@@ -10949,7 +11624,7 @@
     </row>
     <row r="119" spans="1:28">
       <c r="A119" s="1" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="B119" s="1">
         <v>3151</v>
@@ -10961,7 +11636,7 @@
         <v>3201</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1">
@@ -10992,7 +11667,7 @@
         <v>3</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="Q119" s="1">
         <v>0</v>
@@ -11033,7 +11708,7 @@
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="1" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="B120" s="1">
         <v>3201</v>
@@ -11045,7 +11720,7 @@
         <v>3251</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1">
@@ -11076,7 +11751,7 @@
         <v>4</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="Q120" s="1">
         <v>0</v>
@@ -11117,7 +11792,7 @@
     </row>
     <row r="121" spans="1:28">
       <c r="A121" s="1" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="B121" s="1">
         <v>3251</v>
@@ -11129,7 +11804,7 @@
         <v>3301</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1">
@@ -11160,7 +11835,7 @@
         <v>5</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="Q121" s="1">
         <v>0</v>
@@ -11201,7 +11876,7 @@
     </row>
     <row r="122" spans="1:28">
       <c r="A122" s="1" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="B122" s="1">
         <v>3301</v>
@@ -11213,7 +11888,7 @@
         <v>3351</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1">
@@ -11244,7 +11919,7 @@
         <v>6</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="Q122" s="1">
         <v>0</v>
@@ -11285,7 +11960,7 @@
     </row>
     <row r="123" spans="1:28">
       <c r="A123" s="1" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="B123" s="1">
         <v>3052</v>
@@ -11297,7 +11972,7 @@
         <v>3102</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1">
@@ -11328,7 +12003,7 @@
         <v>1</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Q123" s="1">
         <v>0</v>
@@ -11369,7 +12044,7 @@
     </row>
     <row r="124" spans="1:28">
       <c r="A124" s="1" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="B124" s="1">
         <v>3102</v>
@@ -11381,7 +12056,7 @@
         <v>3152</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1">
@@ -11412,7 +12087,7 @@
         <v>2</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Q124" s="1">
         <v>0</v>
@@ -11453,7 +12128,7 @@
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="1" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="B125" s="1">
         <v>3152</v>
@@ -11465,7 +12140,7 @@
         <v>3202</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1">
@@ -11496,7 +12171,7 @@
         <v>3</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Q125" s="1">
         <v>0</v>
@@ -11537,7 +12212,7 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" s="1" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="B126" s="1">
         <v>3202</v>
@@ -11549,7 +12224,7 @@
         <v>3252</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1">
@@ -11580,7 +12255,7 @@
         <v>4</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Q126" s="1">
         <v>0</v>
@@ -11621,7 +12296,7 @@
     </row>
     <row r="127" spans="1:28">
       <c r="A127" s="1" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="B127" s="1">
         <v>3252</v>
@@ -11633,7 +12308,7 @@
         <v>3302</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1">
@@ -11664,7 +12339,7 @@
         <v>5</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Q127" s="1">
         <v>0</v>
@@ -11705,7 +12380,7 @@
     </row>
     <row r="128" spans="1:28">
       <c r="A128" s="1" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="B128" s="1">
         <v>3302</v>
@@ -11717,7 +12392,7 @@
         <v>3352</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1">
@@ -11748,7 +12423,7 @@
         <v>6</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Q128" s="1">
         <v>0</v>
@@ -11789,7 +12464,7 @@
     </row>
     <row r="129" spans="1:28">
       <c r="A129" s="1" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="B129" s="1">
         <v>3053</v>
@@ -11801,7 +12476,7 @@
         <v>3103</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1">
@@ -11832,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="Q129" s="1">
         <v>0</v>
@@ -11873,7 +12548,7 @@
     </row>
     <row r="130" spans="1:28">
       <c r="A130" s="1" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="B130" s="1">
         <v>3103</v>
@@ -11885,7 +12560,7 @@
         <v>3153</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1">
@@ -11916,7 +12591,7 @@
         <v>2</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="Q130" s="1">
         <v>0</v>
@@ -11957,7 +12632,7 @@
     </row>
     <row r="131" spans="1:28">
       <c r="A131" s="1" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="B131" s="1">
         <v>3153</v>
@@ -11969,7 +12644,7 @@
         <v>3203</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1">
@@ -12000,7 +12675,7 @@
         <v>3</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="Q131" s="1">
         <v>0</v>
@@ -12041,7 +12716,7 @@
     </row>
     <row r="132" spans="1:28">
       <c r="A132" s="1" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="B132" s="1">
         <v>3203</v>
@@ -12053,7 +12728,7 @@
         <v>3253</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1">
@@ -12084,7 +12759,7 @@
         <v>4</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="Q132" s="1">
         <v>0</v>
@@ -12125,7 +12800,7 @@
     </row>
     <row r="133" spans="1:28">
       <c r="A133" s="1" t="s">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="B133" s="1">
         <v>3253</v>
@@ -12137,7 +12812,7 @@
         <v>3303</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1">
@@ -12168,7 +12843,7 @@
         <v>5</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="Q133" s="1">
         <v>0</v>
@@ -12209,7 +12884,7 @@
     </row>
     <row r="134" spans="1:28">
       <c r="A134" s="1" t="s">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="B134" s="1">
         <v>3303</v>
@@ -12221,7 +12896,7 @@
         <v>3353</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1">
@@ -12252,7 +12927,7 @@
         <v>6</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="Q134" s="1">
         <v>0</v>
@@ -12293,7 +12968,7 @@
     </row>
     <row r="135" spans="1:28">
       <c r="A135" s="1" t="s">
-        <v>157</v>
+        <v>282</v>
       </c>
       <c r="B135" s="1">
         <v>3054</v>
@@ -12305,7 +12980,7 @@
         <v>3104</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1">
@@ -12336,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="Q135" s="1">
         <v>0</v>
@@ -12377,7 +13052,7 @@
     </row>
     <row r="136" spans="1:28">
       <c r="A136" s="1" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="B136" s="1">
         <v>3104</v>
@@ -12389,7 +13064,7 @@
         <v>3154</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1">
@@ -12420,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="Q136" s="1">
         <v>0</v>
@@ -12461,7 +13136,7 @@
     </row>
     <row r="137" spans="1:28">
       <c r="A137" s="1" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="B137" s="1">
         <v>3154</v>
@@ -12473,7 +13148,7 @@
         <v>3204</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1">
@@ -12504,7 +13179,7 @@
         <v>3</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="Q137" s="1">
         <v>0</v>
@@ -12545,7 +13220,7 @@
     </row>
     <row r="138" spans="1:28">
       <c r="A138" s="1" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="B138" s="1">
         <v>3204</v>
@@ -12557,7 +13232,7 @@
         <v>3254</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1">
@@ -12588,7 +13263,7 @@
         <v>4</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="Q138" s="1">
         <v>0</v>
@@ -12629,7 +13304,7 @@
     </row>
     <row r="139" spans="1:28">
       <c r="A139" s="1" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="B139" s="1">
         <v>3254</v>
@@ -12641,7 +13316,7 @@
         <v>3304</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1">
@@ -12672,7 +13347,7 @@
         <v>5</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="Q139" s="1">
         <v>0</v>
@@ -12713,7 +13388,7 @@
     </row>
     <row r="140" spans="1:28">
       <c r="A140" s="1" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="B140" s="1">
         <v>3304</v>
@@ -12725,7 +13400,7 @@
         <v>3354</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1">
@@ -12756,7 +13431,7 @@
         <v>6</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="Q140" s="1">
         <v>0</v>
@@ -12797,7 +13472,7 @@
     </row>
     <row r="141" spans="1:28">
       <c r="A141" s="1" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="B141" s="1">
         <v>3055</v>
@@ -12809,7 +13484,7 @@
         <v>3105</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1">
@@ -12840,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="Q141" s="1">
         <v>0</v>
@@ -12881,7 +13556,7 @@
     </row>
     <row r="142" spans="1:28">
       <c r="A142" s="1" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="B142" s="1">
         <v>3105</v>
@@ -12893,7 +13568,7 @@
         <v>3155</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1">
@@ -12924,7 +13599,7 @@
         <v>2</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="Q142" s="1">
         <v>0</v>
@@ -12965,7 +13640,7 @@
     </row>
     <row r="143" spans="1:28">
       <c r="A143" s="1" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="B143" s="1">
         <v>3155</v>
@@ -12977,7 +13652,7 @@
         <v>3205</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1">
@@ -13008,7 +13683,7 @@
         <v>3</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="Q143" s="1">
         <v>0</v>
@@ -13049,7 +13724,7 @@
     </row>
     <row r="144" spans="1:28">
       <c r="A144" s="1" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="B144" s="1">
         <v>3205</v>
@@ -13061,7 +13736,7 @@
         <v>3255</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1">
@@ -13092,7 +13767,7 @@
         <v>4</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="Q144" s="1">
         <v>0</v>
@@ -13133,7 +13808,7 @@
     </row>
     <row r="145" spans="1:28">
       <c r="A145" s="1" t="s">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="B145" s="1">
         <v>3255</v>
@@ -13145,7 +13820,7 @@
         <v>3305</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1">
@@ -13176,7 +13851,7 @@
         <v>5</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="Q145" s="1">
         <v>0</v>
@@ -13217,7 +13892,7 @@
     </row>
     <row r="146" spans="1:28">
       <c r="A146" s="1" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="B146" s="1">
         <v>3305</v>
@@ -13229,7 +13904,7 @@
         <v>3355</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1">
@@ -13260,7 +13935,7 @@
         <v>6</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="Q146" s="1">
         <v>0</v>
@@ -13301,7 +13976,7 @@
     </row>
     <row r="147" spans="1:28">
       <c r="A147" s="1" t="s">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="B147" s="1">
         <v>3056</v>
@@ -13313,7 +13988,7 @@
         <v>3106</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1">
@@ -13344,7 +14019,7 @@
         <v>1</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="Q147" s="1">
         <v>0</v>
@@ -13385,7 +14060,7 @@
     </row>
     <row r="148" spans="1:28">
       <c r="A148" s="1" t="s">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c r="B148" s="1">
         <v>3106</v>
@@ -13397,7 +14072,7 @@
         <v>3156</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1">
@@ -13428,7 +14103,7 @@
         <v>2</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="Q148" s="1">
         <v>0</v>
@@ -13469,7 +14144,7 @@
     </row>
     <row r="149" spans="1:28">
       <c r="A149" s="1" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="B149" s="1">
         <v>3156</v>
@@ -13481,7 +14156,7 @@
         <v>3206</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1">
@@ -13512,7 +14187,7 @@
         <v>3</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="Q149" s="1">
         <v>0</v>
@@ -13553,7 +14228,7 @@
     </row>
     <row r="150" spans="1:28">
       <c r="A150" s="1" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="B150" s="1">
         <v>3206</v>
@@ -13565,7 +14240,7 @@
         <v>3256</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1">
@@ -13596,7 +14271,7 @@
         <v>4</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="Q150" s="1">
         <v>0</v>
@@ -13637,7 +14312,7 @@
     </row>
     <row r="151" spans="1:28">
       <c r="A151" s="1" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="B151" s="1">
         <v>3256</v>
@@ -13649,7 +14324,7 @@
         <v>3306</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1">
@@ -13680,7 +14355,7 @@
         <v>5</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="Q151" s="1">
         <v>0</v>
@@ -13721,7 +14396,7 @@
     </row>
     <row r="152" spans="1:28">
       <c r="A152" s="1" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="B152" s="1">
         <v>3306</v>
@@ -13733,7 +14408,7 @@
         <v>3356</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1">
@@ -13764,7 +14439,7 @@
         <v>6</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="Q152" s="1">
         <v>0</v>
@@ -13805,7 +14480,7 @@
     </row>
     <row r="153" spans="1:28">
       <c r="A153" s="1" t="s">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="B153" s="1">
         <v>3057</v>
@@ -13817,7 +14492,7 @@
         <v>3107</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1">
@@ -13848,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="Q153" s="1">
         <v>0</v>
@@ -13889,7 +14564,7 @@
     </row>
     <row r="154" spans="1:28">
       <c r="A154" s="1" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="B154" s="1">
         <v>3107</v>
@@ -13901,7 +14576,7 @@
         <v>3157</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1">
@@ -13932,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="Q154" s="1">
         <v>0</v>
@@ -13973,7 +14648,7 @@
     </row>
     <row r="155" spans="1:28">
       <c r="A155" s="1" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="B155" s="1">
         <v>3157</v>
@@ -13985,7 +14660,7 @@
         <v>3207</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1">
@@ -14016,7 +14691,7 @@
         <v>3</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="Q155" s="1">
         <v>0</v>
@@ -14057,7 +14732,7 @@
     </row>
     <row r="156" spans="1:28">
       <c r="A156" s="1" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="B156" s="1">
         <v>3207</v>
@@ -14069,7 +14744,7 @@
         <v>3257</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1">
@@ -14100,7 +14775,7 @@
         <v>4</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="Q156" s="1">
         <v>0</v>
@@ -14141,7 +14816,7 @@
     </row>
     <row r="157" spans="1:28">
       <c r="A157" s="1" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="B157" s="1">
         <v>3257</v>
@@ -14153,7 +14828,7 @@
         <v>3307</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1">
@@ -14184,7 +14859,7 @@
         <v>5</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="Q157" s="1">
         <v>0</v>
@@ -14225,7 +14900,7 @@
     </row>
     <row r="158" spans="1:28">
       <c r="A158" s="1" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="B158" s="1">
         <v>3307</v>
@@ -14237,7 +14912,7 @@
         <v>3357</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1">
@@ -14268,7 +14943,7 @@
         <v>6</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="Q158" s="1">
         <v>0</v>
@@ -14309,7 +14984,7 @@
     </row>
     <row r="159" spans="1:28">
       <c r="A159" s="1" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="B159" s="1">
         <v>4051</v>
@@ -14321,7 +14996,7 @@
         <v>4101</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1">
@@ -14352,7 +15027,7 @@
         <v>1</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="Q159" s="1">
         <v>0</v>
@@ -14393,7 +15068,7 @@
     </row>
     <row r="160" spans="1:28">
       <c r="A160" s="1" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="B160" s="1">
         <v>4101</v>
@@ -14405,7 +15080,7 @@
         <v>4151</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1">
@@ -14436,7 +15111,7 @@
         <v>2</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="Q160" s="1">
         <v>0</v>
@@ -14477,7 +15152,7 @@
     </row>
     <row r="161" spans="1:28">
       <c r="A161" s="1" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="B161" s="1">
         <v>4151</v>
@@ -14489,7 +15164,7 @@
         <v>4201</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1">
@@ -14520,7 +15195,7 @@
         <v>3</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="Q161" s="1">
         <v>0</v>
@@ -14561,7 +15236,7 @@
     </row>
     <row r="162" spans="1:28">
       <c r="A162" s="1" t="s">
-        <v>165</v>
+        <v>309</v>
       </c>
       <c r="B162" s="1">
         <v>4201</v>
@@ -14573,7 +15248,7 @@
         <v>4251</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1">
@@ -14604,7 +15279,7 @@
         <v>4</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="Q162" s="1">
         <v>0</v>
@@ -14645,7 +15320,7 @@
     </row>
     <row r="163" spans="1:28">
       <c r="A163" s="1" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="B163" s="1">
         <v>4251</v>
@@ -14657,7 +15332,7 @@
         <v>4301</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1">
@@ -14688,7 +15363,7 @@
         <v>5</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="Q163" s="1">
         <v>0</v>
@@ -14729,7 +15404,7 @@
     </row>
     <row r="164" spans="1:28">
       <c r="A164" s="1" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="B164" s="1">
         <v>4301</v>
@@ -14741,7 +15416,7 @@
         <v>4351</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1">
@@ -14772,7 +15447,7 @@
         <v>6</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="Q164" s="1">
         <v>0</v>
@@ -14813,7 +15488,7 @@
     </row>
     <row r="165" spans="1:28">
       <c r="A165" s="1" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="B165" s="1">
         <v>4052</v>
@@ -14825,7 +15500,7 @@
         <v>4102</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1">
@@ -14856,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q165" s="1">
         <v>0</v>
@@ -14897,7 +15572,7 @@
     </row>
     <row r="166" spans="1:28">
       <c r="A166" s="1" t="s">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="B166" s="1">
         <v>4102</v>
@@ -14909,7 +15584,7 @@
         <v>4152</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1">
@@ -14940,7 +15615,7 @@
         <v>2</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q166" s="1">
         <v>0</v>
@@ -14981,7 +15656,7 @@
     </row>
     <row r="167" spans="1:28">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="B167" s="1">
         <v>4152</v>
@@ -14993,7 +15668,7 @@
         <v>4202</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1">
@@ -15024,7 +15699,7 @@
         <v>3</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q167" s="1">
         <v>0</v>
@@ -15065,7 +15740,7 @@
     </row>
     <row r="168" spans="1:28">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="B168" s="1">
         <v>4202</v>
@@ -15077,7 +15752,7 @@
         <v>4252</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1">
@@ -15108,7 +15783,7 @@
         <v>4</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q168" s="1">
         <v>0</v>
@@ -15149,7 +15824,7 @@
     </row>
     <row r="169" spans="1:28">
       <c r="A169" s="1" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="B169" s="1">
         <v>4252</v>
@@ -15161,7 +15836,7 @@
         <v>4302</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1">
@@ -15192,7 +15867,7 @@
         <v>5</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q169" s="1">
         <v>0</v>
@@ -15233,7 +15908,7 @@
     </row>
     <row r="170" spans="1:28">
       <c r="A170" s="1" t="s">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="B170" s="1">
         <v>4302</v>
@@ -15245,7 +15920,7 @@
         <v>4352</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1">
@@ -15276,7 +15951,7 @@
         <v>6</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q170" s="1">
         <v>0</v>
@@ -15317,7 +15992,7 @@
     </row>
     <row r="171" spans="1:28">
       <c r="A171" s="1" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="B171" s="1">
         <v>4053</v>
@@ -15329,7 +16004,7 @@
         <v>4103</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1">
@@ -15360,7 +16035,7 @@
         <v>1</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Q171" s="1">
         <v>0</v>
@@ -15401,7 +16076,7 @@
     </row>
     <row r="172" spans="1:28">
       <c r="A172" s="1" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="B172" s="1">
         <v>4103</v>
@@ -15413,7 +16088,7 @@
         <v>4153</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1">
@@ -15444,7 +16119,7 @@
         <v>2</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Q172" s="1">
         <v>0</v>
@@ -15485,7 +16160,7 @@
     </row>
     <row r="173" spans="1:28">
       <c r="A173" s="1" t="s">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c r="B173" s="1">
         <v>4153</v>
@@ -15497,7 +16172,7 @@
         <v>4203</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1">
@@ -15528,7 +16203,7 @@
         <v>3</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Q173" s="1">
         <v>0</v>
@@ -15569,7 +16244,7 @@
     </row>
     <row r="174" spans="1:28">
       <c r="A174" s="1" t="s">
-        <v>169</v>
+        <v>321</v>
       </c>
       <c r="B174" s="1">
         <v>4203</v>
@@ -15581,7 +16256,7 @@
         <v>4253</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1">
@@ -15612,7 +16287,7 @@
         <v>4</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Q174" s="1">
         <v>0</v>
@@ -15653,7 +16328,7 @@
     </row>
     <row r="175" spans="1:28">
       <c r="A175" s="1" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="B175" s="1">
         <v>4253</v>
@@ -15665,7 +16340,7 @@
         <v>4303</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1">
@@ -15696,7 +16371,7 @@
         <v>5</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Q175" s="1">
         <v>0</v>
@@ -15737,7 +16412,7 @@
     </row>
     <row r="176" spans="1:28">
       <c r="A176" s="1" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="B176" s="1">
         <v>4303</v>
@@ -15749,7 +16424,7 @@
         <v>4353</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1">
@@ -15780,7 +16455,7 @@
         <v>6</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Q176" s="1">
         <v>0</v>
@@ -15821,7 +16496,7 @@
     </row>
     <row r="177" spans="1:28">
       <c r="A177" s="1" t="s">
-        <v>171</v>
+        <v>324</v>
       </c>
       <c r="B177" s="1">
         <v>4054</v>
@@ -15833,7 +16508,7 @@
         <v>4104</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1">
@@ -15864,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Q177" s="1">
         <v>0</v>
@@ -15905,7 +16580,7 @@
     </row>
     <row r="178" spans="1:28">
       <c r="A178" s="1" t="s">
-        <v>171</v>
+        <v>325</v>
       </c>
       <c r="B178" s="1">
         <v>4104</v>
@@ -15917,7 +16592,7 @@
         <v>4154</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1">
@@ -15948,7 +16623,7 @@
         <v>2</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Q178" s="1">
         <v>0</v>
@@ -15989,7 +16664,7 @@
     </row>
     <row r="179" spans="1:28">
       <c r="A179" s="1" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="B179" s="1">
         <v>4154</v>
@@ -16001,7 +16676,7 @@
         <v>4204</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1">
@@ -16032,7 +16707,7 @@
         <v>3</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Q179" s="1">
         <v>0</v>
@@ -16073,7 +16748,7 @@
     </row>
     <row r="180" spans="1:28">
       <c r="A180" s="1" t="s">
-        <v>171</v>
+        <v>327</v>
       </c>
       <c r="B180" s="1">
         <v>4204</v>
@@ -16085,7 +16760,7 @@
         <v>4254</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1">
@@ -16116,7 +16791,7 @@
         <v>4</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Q180" s="1">
         <v>0</v>
@@ -16157,7 +16832,7 @@
     </row>
     <row r="181" spans="1:28">
       <c r="A181" s="1" t="s">
-        <v>171</v>
+        <v>328</v>
       </c>
       <c r="B181" s="1">
         <v>4254</v>
@@ -16169,7 +16844,7 @@
         <v>4304</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1">
@@ -16200,7 +16875,7 @@
         <v>5</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Q181" s="1">
         <v>0</v>
@@ -16241,7 +16916,7 @@
     </row>
     <row r="182" spans="1:28">
       <c r="A182" s="1" t="s">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="B182" s="1">
         <v>4304</v>
@@ -16253,7 +16928,7 @@
         <v>4354</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1">
@@ -16284,7 +16959,7 @@
         <v>6</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="Q182" s="1">
         <v>0</v>
@@ -16325,7 +17000,7 @@
     </row>
     <row r="183" spans="1:28">
       <c r="A183" s="1" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="B183" s="1">
         <v>4055</v>
@@ -16337,7 +17012,7 @@
         <v>4105</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1">
@@ -16368,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="Q183" s="1">
         <v>0</v>
@@ -16409,7 +17084,7 @@
     </row>
     <row r="184" spans="1:28">
       <c r="A184" s="1" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="B184" s="1">
         <v>4105</v>
@@ -16421,7 +17096,7 @@
         <v>4155</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1">
@@ -16452,7 +17127,7 @@
         <v>2</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="Q184" s="1">
         <v>0</v>
@@ -16493,7 +17168,7 @@
     </row>
     <row r="185" spans="1:28">
       <c r="A185" s="1" t="s">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="B185" s="1">
         <v>4155</v>
@@ -16505,7 +17180,7 @@
         <v>4205</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1">
@@ -16536,7 +17211,7 @@
         <v>3</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="Q185" s="1">
         <v>0</v>
@@ -16577,7 +17252,7 @@
     </row>
     <row r="186" spans="1:28">
       <c r="A186" s="1" t="s">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="B186" s="1">
         <v>4205</v>
@@ -16589,7 +17264,7 @@
         <v>4255</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1">
@@ -16620,7 +17295,7 @@
         <v>4</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="Q186" s="1">
         <v>0</v>
@@ -16661,7 +17336,7 @@
     </row>
     <row r="187" spans="1:28">
       <c r="A187" s="1" t="s">
-        <v>173</v>
+        <v>334</v>
       </c>
       <c r="B187" s="1">
         <v>4255</v>
@@ -16673,7 +17348,7 @@
         <v>4305</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1">
@@ -16704,7 +17379,7 @@
         <v>5</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="Q187" s="1">
         <v>0</v>
@@ -16745,7 +17420,7 @@
     </row>
     <row r="188" spans="1:28">
       <c r="A188" s="1" t="s">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="B188" s="1">
         <v>4305</v>
@@ -16757,7 +17432,7 @@
         <v>4355</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1">
@@ -16788,7 +17463,7 @@
         <v>6</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="Q188" s="1">
         <v>0</v>
@@ -16829,7 +17504,7 @@
     </row>
     <row r="189" spans="1:28">
       <c r="A189" s="1" t="s">
-        <v>175</v>
+        <v>336</v>
       </c>
       <c r="B189" s="1">
         <v>4056</v>
@@ -16841,7 +17516,7 @@
         <v>4106</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1">
@@ -16872,7 +17547,7 @@
         <v>1</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="Q189" s="1">
         <v>0</v>
@@ -16913,7 +17588,7 @@
     </row>
     <row r="190" spans="1:28">
       <c r="A190" s="1" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="B190" s="1">
         <v>4106</v>
@@ -16925,7 +17600,7 @@
         <v>4156</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1">
@@ -16956,7 +17631,7 @@
         <v>2</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="Q190" s="1">
         <v>0</v>
@@ -16997,7 +17672,7 @@
     </row>
     <row r="191" spans="1:28">
       <c r="A191" s="1" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="B191" s="1">
         <v>4156</v>
@@ -17009,7 +17684,7 @@
         <v>4206</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1">
@@ -17040,7 +17715,7 @@
         <v>3</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="Q191" s="1">
         <v>0</v>
@@ -17081,7 +17756,7 @@
     </row>
     <row r="192" spans="1:28">
       <c r="A192" s="1" t="s">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="B192" s="1">
         <v>4206</v>
@@ -17093,7 +17768,7 @@
         <v>4256</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1">
@@ -17124,7 +17799,7 @@
         <v>4</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="Q192" s="1">
         <v>0</v>
@@ -17165,7 +17840,7 @@
     </row>
     <row r="193" spans="1:28">
       <c r="A193" s="1" t="s">
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="B193" s="1">
         <v>4256</v>
@@ -17177,7 +17852,7 @@
         <v>4306</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1">
@@ -17208,7 +17883,7 @@
         <v>5</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="Q193" s="1">
         <v>0</v>
@@ -17249,7 +17924,7 @@
     </row>
     <row r="194" spans="1:28">
       <c r="A194" s="1" t="s">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="B194" s="1">
         <v>4306</v>
@@ -17261,7 +17936,7 @@
         <v>4356</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1">
@@ -17292,7 +17967,7 @@
         <v>6</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="Q194" s="1">
         <v>0</v>
@@ -17333,7 +18008,7 @@
     </row>
     <row r="195" spans="1:28">
       <c r="A195" s="1" t="s">
-        <v>177</v>
+        <v>342</v>
       </c>
       <c r="B195" s="1">
         <v>4059</v>
@@ -17345,7 +18020,7 @@
         <v>4109</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1">
@@ -17376,7 +18051,7 @@
         <v>1</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="Q195" s="1">
         <v>0</v>
@@ -17417,7 +18092,7 @@
     </row>
     <row r="196" spans="1:28">
       <c r="A196" s="1" t="s">
-        <v>177</v>
+        <v>343</v>
       </c>
       <c r="B196" s="1">
         <v>4109</v>
@@ -17429,7 +18104,7 @@
         <v>4159</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1">
@@ -17460,7 +18135,7 @@
         <v>2</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="Q196" s="1">
         <v>0</v>
@@ -17501,7 +18176,7 @@
     </row>
     <row r="197" spans="1:28">
       <c r="A197" s="1" t="s">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="B197" s="1">
         <v>4159</v>
@@ -17513,7 +18188,7 @@
         <v>4209</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1">
@@ -17544,7 +18219,7 @@
         <v>3</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="Q197" s="1">
         <v>0</v>
@@ -17585,7 +18260,7 @@
     </row>
     <row r="198" spans="1:28">
       <c r="A198" s="1" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="B198" s="1">
         <v>4209</v>
@@ -17597,7 +18272,7 @@
         <v>4259</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1">
@@ -17628,7 +18303,7 @@
         <v>4</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="Q198" s="1">
         <v>0</v>
@@ -17669,7 +18344,7 @@
     </row>
     <row r="199" spans="1:28">
       <c r="A199" s="1" t="s">
-        <v>177</v>
+        <v>346</v>
       </c>
       <c r="B199" s="1">
         <v>4259</v>
@@ -17681,7 +18356,7 @@
         <v>4309</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1">
@@ -17712,7 +18387,7 @@
         <v>5</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="Q199" s="1">
         <v>0</v>
@@ -17753,7 +18428,7 @@
     </row>
     <row r="200" spans="1:28">
       <c r="A200" s="1" t="s">
-        <v>177</v>
+        <v>347</v>
       </c>
       <c r="B200" s="1">
         <v>4309</v>
@@ -17765,7 +18440,7 @@
         <v>4359</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1">
@@ -17796,7 +18471,7 @@
         <v>6</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="Q200" s="1">
         <v>0</v>
@@ -17837,7 +18512,7 @@
     </row>
     <row r="201" spans="1:28">
       <c r="A201" s="1" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="B201" s="1">
         <v>5051</v>
@@ -17849,7 +18524,7 @@
         <v>5101</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1">
@@ -17880,7 +18555,7 @@
         <v>1</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q201" s="1">
         <v>0</v>
@@ -17921,7 +18596,7 @@
     </row>
     <row r="202" spans="1:28">
       <c r="A202" s="1" t="s">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="B202" s="1">
         <v>5101</v>
@@ -17933,7 +18608,7 @@
         <v>5151</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1">
@@ -17964,7 +18639,7 @@
         <v>2</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q202" s="1">
         <v>0</v>
@@ -18005,7 +18680,7 @@
     </row>
     <row r="203" spans="1:28">
       <c r="A203" s="1" t="s">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="B203" s="1">
         <v>5151</v>
@@ -18017,7 +18692,7 @@
         <v>5201</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1">
@@ -18048,7 +18723,7 @@
         <v>3</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q203" s="1">
         <v>0</v>
@@ -18089,7 +18764,7 @@
     </row>
     <row r="204" spans="1:28">
       <c r="A204" s="1" t="s">
-        <v>179</v>
+        <v>351</v>
       </c>
       <c r="B204" s="1">
         <v>5201</v>
@@ -18101,7 +18776,7 @@
         <v>5251</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1">
@@ -18132,7 +18807,7 @@
         <v>4</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q204" s="1">
         <v>0</v>
@@ -18173,7 +18848,7 @@
     </row>
     <row r="205" spans="1:28">
       <c r="A205" s="1" t="s">
-        <v>179</v>
+        <v>352</v>
       </c>
       <c r="B205" s="1">
         <v>5251</v>
@@ -18185,7 +18860,7 @@
         <v>5301</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1">
@@ -18216,7 +18891,7 @@
         <v>5</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q205" s="1">
         <v>0</v>
@@ -18257,7 +18932,7 @@
     </row>
     <row r="206" spans="1:28">
       <c r="A206" s="1" t="s">
-        <v>179</v>
+        <v>353</v>
       </c>
       <c r="B206" s="1">
         <v>5301</v>
@@ -18269,7 +18944,7 @@
         <v>5351</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1">
@@ -18300,7 +18975,7 @@
         <v>6</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="Q206" s="1">
         <v>0</v>
@@ -18341,7 +19016,7 @@
     </row>
     <row r="207" spans="1:28">
       <c r="A207" s="1" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="B207" s="1">
         <v>5052</v>
@@ -18353,7 +19028,7 @@
         <v>5102</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1">
@@ -18384,7 +19059,7 @@
         <v>1</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="Q207" s="1">
         <v>0</v>
@@ -18425,7 +19100,7 @@
     </row>
     <row r="208" spans="1:28">
       <c r="A208" s="1" t="s">
-        <v>181</v>
+        <v>355</v>
       </c>
       <c r="B208" s="1">
         <v>5102</v>
@@ -18437,7 +19112,7 @@
         <v>5152</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F208" s="1"/>
       <c r="G208" s="1">
@@ -18468,7 +19143,7 @@
         <v>2</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="Q208" s="1">
         <v>0</v>
@@ -18509,7 +19184,7 @@
     </row>
     <row r="209" spans="1:28">
       <c r="A209" s="1" t="s">
-        <v>181</v>
+        <v>356</v>
       </c>
       <c r="B209" s="1">
         <v>5152</v>
@@ -18521,7 +19196,7 @@
         <v>5202</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1">
@@ -18552,7 +19227,7 @@
         <v>3</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="Q209" s="1">
         <v>0</v>
@@ -18593,7 +19268,7 @@
     </row>
     <row r="210" spans="1:28">
       <c r="A210" s="1" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="B210" s="1">
         <v>5202</v>
@@ -18605,7 +19280,7 @@
         <v>5252</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1">
@@ -18636,7 +19311,7 @@
         <v>4</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="Q210" s="1">
         <v>0</v>
@@ -18677,7 +19352,7 @@
     </row>
     <row r="211" spans="1:28">
       <c r="A211" s="1" t="s">
-        <v>181</v>
+        <v>358</v>
       </c>
       <c r="B211" s="1">
         <v>5252</v>
@@ -18689,7 +19364,7 @@
         <v>5302</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1">
@@ -18720,7 +19395,7 @@
         <v>5</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="Q211" s="1">
         <v>0</v>
@@ -18761,7 +19436,7 @@
     </row>
     <row r="212" spans="1:28">
       <c r="A212" s="1" t="s">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="B212" s="1">
         <v>5302</v>
@@ -18773,7 +19448,7 @@
         <v>5352</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1">
@@ -18804,7 +19479,7 @@
         <v>6</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="Q212" s="1">
         <v>0</v>
@@ -18845,7 +19520,7 @@
     </row>
     <row r="213" spans="1:28">
       <c r="A213" s="1" t="s">
-        <v>183</v>
+        <v>360</v>
       </c>
       <c r="B213" s="1">
         <v>5053</v>
@@ -18857,7 +19532,7 @@
         <v>5103</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1">
@@ -18888,7 +19563,7 @@
         <v>1</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="Q213" s="1">
         <v>0</v>
@@ -18929,7 +19604,7 @@
     </row>
     <row r="214" spans="1:28">
       <c r="A214" s="1" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="B214" s="1">
         <v>5103</v>
@@ -18941,7 +19616,7 @@
         <v>5153</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1">
@@ -18972,7 +19647,7 @@
         <v>2</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="Q214" s="1">
         <v>0</v>
@@ -19013,7 +19688,7 @@
     </row>
     <row r="215" spans="1:28">
       <c r="A215" s="1" t="s">
-        <v>183</v>
+        <v>362</v>
       </c>
       <c r="B215" s="1">
         <v>5153</v>
@@ -19025,7 +19700,7 @@
         <v>5203</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1">
@@ -19056,7 +19731,7 @@
         <v>3</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="Q215" s="1">
         <v>0</v>
@@ -19097,7 +19772,7 @@
     </row>
     <row r="216" spans="1:28">
       <c r="A216" s="1" t="s">
-        <v>183</v>
+        <v>363</v>
       </c>
       <c r="B216" s="1">
         <v>5203</v>
@@ -19109,7 +19784,7 @@
         <v>5253</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1">
@@ -19140,7 +19815,7 @@
         <v>4</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="Q216" s="1">
         <v>0</v>
@@ -19181,7 +19856,7 @@
     </row>
     <row r="217" spans="1:28">
       <c r="A217" s="1" t="s">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="B217" s="1">
         <v>5253</v>
@@ -19193,7 +19868,7 @@
         <v>5303</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1">
@@ -19224,7 +19899,7 @@
         <v>5</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="Q217" s="1">
         <v>0</v>
@@ -19265,7 +19940,7 @@
     </row>
     <row r="218" spans="1:28">
       <c r="A218" s="1" t="s">
-        <v>183</v>
+        <v>365</v>
       </c>
       <c r="B218" s="1">
         <v>5303</v>
@@ -19277,7 +19952,7 @@
         <v>5353</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1">
@@ -19308,7 +19983,7 @@
         <v>6</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="Q218" s="1">
         <v>0</v>
@@ -19349,7 +20024,7 @@
     </row>
     <row r="219" spans="1:28">
       <c r="A219" s="1" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="B219" s="1">
         <v>5054</v>
@@ -19361,7 +20036,7 @@
         <v>5104</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1">
@@ -19392,7 +20067,7 @@
         <v>1</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q219" s="1">
         <v>0</v>
@@ -19433,7 +20108,7 @@
     </row>
     <row r="220" spans="1:28">
       <c r="A220" s="1" t="s">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="B220" s="1">
         <v>5104</v>
@@ -19445,7 +20120,7 @@
         <v>5154</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1">
@@ -19476,7 +20151,7 @@
         <v>2</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q220" s="1">
         <v>0</v>
@@ -19517,7 +20192,7 @@
     </row>
     <row r="221" spans="1:28">
       <c r="A221" s="1" t="s">
-        <v>185</v>
+        <v>368</v>
       </c>
       <c r="B221" s="1">
         <v>5154</v>
@@ -19529,7 +20204,7 @@
         <v>5204</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1">
@@ -19560,7 +20235,7 @@
         <v>3</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q221" s="1">
         <v>0</v>
@@ -19601,7 +20276,7 @@
     </row>
     <row r="222" spans="1:28">
       <c r="A222" s="1" t="s">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="B222" s="1">
         <v>5204</v>
@@ -19613,7 +20288,7 @@
         <v>5254</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1">
@@ -19644,7 +20319,7 @@
         <v>4</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q222" s="1">
         <v>0</v>
@@ -19685,7 +20360,7 @@
     </row>
     <row r="223" spans="1:28">
       <c r="A223" s="1" t="s">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="B223" s="1">
         <v>5254</v>
@@ -19697,7 +20372,7 @@
         <v>5304</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1">
@@ -19728,7 +20403,7 @@
         <v>5</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q223" s="1">
         <v>0</v>
@@ -19769,7 +20444,7 @@
     </row>
     <row r="224" spans="1:28">
       <c r="A224" s="1" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="B224" s="1">
         <v>5304</v>
@@ -19781,7 +20456,7 @@
         <v>5354</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1">
@@ -19812,7 +20487,7 @@
         <v>6</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q224" s="1">
         <v>0</v>
@@ -19853,7 +20528,7 @@
     </row>
     <row r="225" spans="1:28">
       <c r="A225" s="1" t="s">
-        <v>187</v>
+        <v>372</v>
       </c>
       <c r="B225" s="1">
         <v>5055</v>
@@ -19865,7 +20540,7 @@
         <v>5105</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1">
@@ -19896,7 +20571,7 @@
         <v>1</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="Q225" s="1">
         <v>0</v>
@@ -19937,7 +20612,7 @@
     </row>
     <row r="226" spans="1:28">
       <c r="A226" s="1" t="s">
-        <v>187</v>
+        <v>373</v>
       </c>
       <c r="B226" s="1">
         <v>5105</v>
@@ -19949,7 +20624,7 @@
         <v>5155</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1">
@@ -19980,7 +20655,7 @@
         <v>2</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="Q226" s="1">
         <v>0</v>
@@ -20021,7 +20696,7 @@
     </row>
     <row r="227" spans="1:28">
       <c r="A227" s="1" t="s">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="B227" s="1">
         <v>5155</v>
@@ -20033,7 +20708,7 @@
         <v>5205</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1">
@@ -20064,7 +20739,7 @@
         <v>3</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="Q227" s="1">
         <v>0</v>
@@ -20105,7 +20780,7 @@
     </row>
     <row r="228" spans="1:28">
       <c r="A228" s="1" t="s">
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="B228" s="1">
         <v>5205</v>
@@ -20117,7 +20792,7 @@
         <v>5255</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1">
@@ -20148,7 +20823,7 @@
         <v>4</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="Q228" s="1">
         <v>0</v>
@@ -20189,7 +20864,7 @@
     </row>
     <row r="229" spans="1:28">
       <c r="A229" s="1" t="s">
-        <v>187</v>
+        <v>376</v>
       </c>
       <c r="B229" s="1">
         <v>5255</v>
@@ -20201,7 +20876,7 @@
         <v>5305</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1">
@@ -20232,7 +20907,7 @@
         <v>5</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="Q229" s="1">
         <v>0</v>
@@ -20273,7 +20948,7 @@
     </row>
     <row r="230" spans="1:28">
       <c r="A230" s="1" t="s">
-        <v>187</v>
+        <v>377</v>
       </c>
       <c r="B230" s="1">
         <v>5305</v>
@@ -20285,7 +20960,7 @@
         <v>5355</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1">
@@ -20316,7 +20991,7 @@
         <v>6</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="Q230" s="1">
         <v>0</v>
@@ -20357,7 +21032,7 @@
     </row>
     <row r="231" spans="1:28">
       <c r="A231" s="1" t="s">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="B231" s="1">
         <v>5056</v>
@@ -20369,7 +21044,7 @@
         <v>5106</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1">
@@ -20400,7 +21075,7 @@
         <v>1</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="Q231" s="1">
         <v>0</v>
@@ -20441,7 +21116,7 @@
     </row>
     <row r="232" spans="1:28">
       <c r="A232" s="1" t="s">
-        <v>189</v>
+        <v>379</v>
       </c>
       <c r="B232" s="1">
         <v>5106</v>
@@ -20453,7 +21128,7 @@
         <v>5156</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1">
@@ -20484,7 +21159,7 @@
         <v>2</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="Q232" s="1">
         <v>0</v>
@@ -20525,7 +21200,7 @@
     </row>
     <row r="233" spans="1:28">
       <c r="A233" s="1" t="s">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="B233" s="1">
         <v>5156</v>
@@ -20537,7 +21212,7 @@
         <v>5206</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1">
@@ -20568,7 +21243,7 @@
         <v>3</v>
       </c>
       <c r="P233" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="Q233" s="1">
         <v>0</v>
@@ -20609,7 +21284,7 @@
     </row>
     <row r="234" spans="1:28">
       <c r="A234" s="1" t="s">
-        <v>189</v>
+        <v>381</v>
       </c>
       <c r="B234" s="1">
         <v>5206</v>
@@ -20621,7 +21296,7 @@
         <v>5256</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1">
@@ -20652,7 +21327,7 @@
         <v>4</v>
       </c>
       <c r="P234" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="Q234" s="1">
         <v>0</v>
@@ -20693,7 +21368,7 @@
     </row>
     <row r="235" spans="1:28">
       <c r="A235" s="1" t="s">
-        <v>189</v>
+        <v>382</v>
       </c>
       <c r="B235" s="1">
         <v>5256</v>
@@ -20705,7 +21380,7 @@
         <v>5306</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1">
@@ -20736,7 +21411,7 @@
         <v>5</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="Q235" s="1">
         <v>0</v>
@@ -20777,7 +21452,7 @@
     </row>
     <row r="236" spans="1:28">
       <c r="A236" s="1" t="s">
-        <v>189</v>
+        <v>383</v>
       </c>
       <c r="B236" s="1">
         <v>5306</v>
@@ -20789,7 +21464,7 @@
         <v>5356</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1">
@@ -20820,7 +21495,7 @@
         <v>6</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="Q236" s="1">
         <v>0</v>
@@ -20861,7 +21536,7 @@
     </row>
     <row r="237" spans="1:28">
       <c r="A237" s="1" t="s">
-        <v>191</v>
+        <v>384</v>
       </c>
       <c r="B237" s="1">
         <v>5058</v>
@@ -20873,7 +21548,7 @@
         <v>5108</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1">
@@ -20904,7 +21579,7 @@
         <v>1</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="Q237" s="1">
         <v>0</v>
@@ -20945,7 +21620,7 @@
     </row>
     <row r="238" spans="1:28">
       <c r="A238" s="1" t="s">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="B238" s="1">
         <v>5108</v>
@@ -20957,7 +21632,7 @@
         <v>5158</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1">
@@ -20988,7 +21663,7 @@
         <v>2</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="Q238" s="1">
         <v>0</v>
@@ -21029,7 +21704,7 @@
     </row>
     <row r="239" spans="1:28">
       <c r="A239" s="1" t="s">
-        <v>191</v>
+        <v>386</v>
       </c>
       <c r="B239" s="1">
         <v>5158</v>
@@ -21041,7 +21716,7 @@
         <v>5208</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1">
@@ -21072,7 +21747,7 @@
         <v>3</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="Q239" s="1">
         <v>0</v>
@@ -21113,7 +21788,7 @@
     </row>
     <row r="240" spans="1:28">
       <c r="A240" s="1" t="s">
-        <v>191</v>
+        <v>387</v>
       </c>
       <c r="B240" s="1">
         <v>5208</v>
@@ -21125,7 +21800,7 @@
         <v>5258</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1">
@@ -21156,7 +21831,7 @@
         <v>4</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="Q240" s="1">
         <v>0</v>
@@ -21197,7 +21872,7 @@
     </row>
     <row r="241" spans="1:28">
       <c r="A241" s="1" t="s">
-        <v>191</v>
+        <v>388</v>
       </c>
       <c r="B241" s="1">
         <v>5258</v>
@@ -21209,7 +21884,7 @@
         <v>5308</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1">
@@ -21240,7 +21915,7 @@
         <v>5</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="Q241" s="1">
         <v>0</v>
@@ -21281,7 +21956,7 @@
     </row>
     <row r="242" spans="1:28">
       <c r="A242" s="1" t="s">
-        <v>191</v>
+        <v>389</v>
       </c>
       <c r="B242" s="1">
         <v>5308</v>
@@ -21293,7 +21968,7 @@
         <v>5358</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1">
@@ -21324,7 +21999,7 @@
         <v>6</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="Q242" s="1">
         <v>0</v>
@@ -21365,7 +22040,7 @@
     </row>
     <row r="243" spans="1:28">
       <c r="A243" s="1" t="s">
-        <v>193</v>
+        <v>390</v>
       </c>
       <c r="B243" s="1">
         <v>6051</v>
@@ -21377,7 +22052,7 @@
         <v>6101</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1">
@@ -21408,7 +22083,7 @@
         <v>1</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="Q243" s="1">
         <v>0</v>
@@ -21449,7 +22124,7 @@
     </row>
     <row r="244" spans="1:28">
       <c r="A244" s="1" t="s">
-        <v>193</v>
+        <v>391</v>
       </c>
       <c r="B244" s="1">
         <v>6101</v>
@@ -21461,7 +22136,7 @@
         <v>6151</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1">
@@ -21492,7 +22167,7 @@
         <v>2</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="Q244" s="1">
         <v>0</v>
@@ -21533,7 +22208,7 @@
     </row>
     <row r="245" spans="1:28">
       <c r="A245" s="1" t="s">
-        <v>193</v>
+        <v>392</v>
       </c>
       <c r="B245" s="1">
         <v>6151</v>
@@ -21545,7 +22220,7 @@
         <v>6201</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1">
@@ -21576,7 +22251,7 @@
         <v>3</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="Q245" s="1">
         <v>0</v>
@@ -21617,7 +22292,7 @@
     </row>
     <row r="246" spans="1:28">
       <c r="A246" s="1" t="s">
-        <v>193</v>
+        <v>393</v>
       </c>
       <c r="B246" s="1">
         <v>6201</v>
@@ -21629,7 +22304,7 @@
         <v>6251</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1">
@@ -21660,7 +22335,7 @@
         <v>4</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="Q246" s="1">
         <v>0</v>
@@ -21701,7 +22376,7 @@
     </row>
     <row r="247" spans="1:28">
       <c r="A247" s="1" t="s">
-        <v>193</v>
+        <v>394</v>
       </c>
       <c r="B247" s="1">
         <v>6251</v>
@@ -21713,7 +22388,7 @@
         <v>6301</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1">
@@ -21744,7 +22419,7 @@
         <v>5</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="Q247" s="1">
         <v>0</v>
@@ -21785,7 +22460,7 @@
     </row>
     <row r="248" spans="1:28">
       <c r="A248" s="1" t="s">
-        <v>193</v>
+        <v>395</v>
       </c>
       <c r="B248" s="1">
         <v>6301</v>
@@ -21797,7 +22472,7 @@
         <v>6351</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1">
@@ -21828,7 +22503,7 @@
         <v>6</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="Q248" s="1">
         <v>0</v>
@@ -21869,7 +22544,7 @@
     </row>
     <row r="249" spans="1:28">
       <c r="A249" s="1" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="B249" s="1">
         <v>6052</v>
@@ -21881,7 +22556,7 @@
         <v>6102</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1">
@@ -21912,7 +22587,7 @@
         <v>1</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="Q249" s="1">
         <v>0</v>
@@ -21953,7 +22628,7 @@
     </row>
     <row r="250" spans="1:28">
       <c r="A250" s="1" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
       <c r="B250" s="1">
         <v>6102</v>
@@ -21965,7 +22640,7 @@
         <v>6152</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1">
@@ -21996,7 +22671,7 @@
         <v>2</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="Q250" s="1">
         <v>0</v>
@@ -22037,7 +22712,7 @@
     </row>
     <row r="251" spans="1:28">
       <c r="A251" s="1" t="s">
-        <v>195</v>
+        <v>398</v>
       </c>
       <c r="B251" s="1">
         <v>6152</v>
@@ -22049,7 +22724,7 @@
         <v>6202</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1">
@@ -22080,7 +22755,7 @@
         <v>3</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="Q251" s="1">
         <v>0</v>
@@ -22121,7 +22796,7 @@
     </row>
     <row r="252" spans="1:28">
       <c r="A252" s="1" t="s">
-        <v>195</v>
+        <v>399</v>
       </c>
       <c r="B252" s="1">
         <v>6202</v>
@@ -22133,7 +22808,7 @@
         <v>6252</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F252" s="1"/>
       <c r="G252" s="1">
@@ -22164,7 +22839,7 @@
         <v>4</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="Q252" s="1">
         <v>0</v>
@@ -22205,7 +22880,7 @@
     </row>
     <row r="253" spans="1:28">
       <c r="A253" s="1" t="s">
-        <v>195</v>
+        <v>400</v>
       </c>
       <c r="B253" s="1">
         <v>6252</v>
@@ -22217,7 +22892,7 @@
         <v>6302</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1">
@@ -22248,7 +22923,7 @@
         <v>5</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="Q253" s="1">
         <v>0</v>
@@ -22289,7 +22964,7 @@
     </row>
     <row r="254" spans="1:28">
       <c r="A254" s="1" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
       <c r="B254" s="1">
         <v>6302</v>
@@ -22301,7 +22976,7 @@
         <v>6352</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F254" s="1"/>
       <c r="G254" s="1">
@@ -22332,7 +23007,7 @@
         <v>6</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="Q254" s="1">
         <v>0</v>
@@ -22373,7 +23048,7 @@
     </row>
     <row r="255" spans="1:28">
       <c r="A255" s="1" t="s">
-        <v>197</v>
+        <v>402</v>
       </c>
       <c r="B255" s="1">
         <v>6053</v>
@@ -22385,7 +23060,7 @@
         <v>6103</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1">
@@ -22416,7 +23091,7 @@
         <v>1</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="Q255" s="1">
         <v>0</v>
@@ -22457,7 +23132,7 @@
     </row>
     <row r="256" spans="1:28">
       <c r="A256" s="1" t="s">
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="B256" s="1">
         <v>6103</v>
@@ -22469,7 +23144,7 @@
         <v>6153</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1">
@@ -22500,7 +23175,7 @@
         <v>2</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="Q256" s="1">
         <v>0</v>
@@ -22541,7 +23216,7 @@
     </row>
     <row r="257" spans="1:28">
       <c r="A257" s="1" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="B257" s="1">
         <v>6153</v>
@@ -22553,7 +23228,7 @@
         <v>6203</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1">
@@ -22584,7 +23259,7 @@
         <v>3</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="Q257" s="1">
         <v>0</v>
@@ -22625,7 +23300,7 @@
     </row>
     <row r="258" spans="1:28">
       <c r="A258" s="1" t="s">
-        <v>197</v>
+        <v>405</v>
       </c>
       <c r="B258" s="1">
         <v>6203</v>
@@ -22637,7 +23312,7 @@
         <v>6253</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1">
@@ -22668,7 +23343,7 @@
         <v>4</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="Q258" s="1">
         <v>0</v>
@@ -22709,7 +23384,7 @@
     </row>
     <row r="259" spans="1:28">
       <c r="A259" s="1" t="s">
-        <v>197</v>
+        <v>406</v>
       </c>
       <c r="B259" s="1">
         <v>6253</v>
@@ -22721,7 +23396,7 @@
         <v>6303</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1">
@@ -22752,7 +23427,7 @@
         <v>5</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="Q259" s="1">
         <v>0</v>
@@ -22793,7 +23468,7 @@
     </row>
     <row r="260" spans="1:28">
       <c r="A260" s="1" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="B260" s="1">
         <v>6303</v>
@@ -22805,7 +23480,7 @@
         <v>6353</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1">
@@ -22836,7 +23511,7 @@
         <v>6</v>
       </c>
       <c r="P260" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="Q260" s="1">
         <v>0</v>
@@ -22877,7 +23552,7 @@
     </row>
     <row r="261" spans="1:28">
       <c r="A261" s="1" t="s">
-        <v>199</v>
+        <v>408</v>
       </c>
       <c r="B261" s="1">
         <v>6054</v>
@@ -22889,7 +23564,7 @@
         <v>6104</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1">
@@ -22920,7 +23595,7 @@
         <v>1</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="Q261" s="1">
         <v>0</v>
@@ -22961,7 +23636,7 @@
     </row>
     <row r="262" spans="1:28">
       <c r="A262" s="1" t="s">
-        <v>199</v>
+        <v>409</v>
       </c>
       <c r="B262" s="1">
         <v>6104</v>
@@ -22973,7 +23648,7 @@
         <v>6154</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1">
@@ -23004,7 +23679,7 @@
         <v>2</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="Q262" s="1">
         <v>0</v>
@@ -23045,7 +23720,7 @@
     </row>
     <row r="263" spans="1:28">
       <c r="A263" s="1" t="s">
-        <v>199</v>
+        <v>410</v>
       </c>
       <c r="B263" s="1">
         <v>6154</v>
@@ -23057,7 +23732,7 @@
         <v>6204</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F263" s="1"/>
       <c r="G263" s="1">
@@ -23088,7 +23763,7 @@
         <v>3</v>
       </c>
       <c r="P263" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="Q263" s="1">
         <v>0</v>
@@ -23129,7 +23804,7 @@
     </row>
     <row r="264" spans="1:28">
       <c r="A264" s="1" t="s">
-        <v>199</v>
+        <v>411</v>
       </c>
       <c r="B264" s="1">
         <v>6204</v>
@@ -23141,7 +23816,7 @@
         <v>6254</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F264" s="1"/>
       <c r="G264" s="1">
@@ -23172,7 +23847,7 @@
         <v>4</v>
       </c>
       <c r="P264" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="Q264" s="1">
         <v>0</v>
@@ -23213,7 +23888,7 @@
     </row>
     <row r="265" spans="1:28">
       <c r="A265" s="1" t="s">
-        <v>199</v>
+        <v>412</v>
       </c>
       <c r="B265" s="1">
         <v>6254</v>
@@ -23225,7 +23900,7 @@
         <v>6304</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1">
@@ -23256,7 +23931,7 @@
         <v>5</v>
       </c>
       <c r="P265" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="Q265" s="1">
         <v>0</v>
@@ -23297,7 +23972,7 @@
     </row>
     <row r="266" spans="1:28">
       <c r="A266" s="1" t="s">
-        <v>199</v>
+        <v>413</v>
       </c>
       <c r="B266" s="1">
         <v>6304</v>
@@ -23309,7 +23984,7 @@
         <v>6354</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1">
@@ -23340,7 +24015,7 @@
         <v>6</v>
       </c>
       <c r="P266" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="Q266" s="1">
         <v>0</v>
@@ -23381,7 +24056,7 @@
     </row>
     <row r="267" spans="1:28">
       <c r="A267" s="1" t="s">
-        <v>201</v>
+        <v>414</v>
       </c>
       <c r="B267" s="1">
         <v>6055</v>
@@ -23393,7 +24068,7 @@
         <v>6105</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1">
@@ -23424,7 +24099,7 @@
         <v>1</v>
       </c>
       <c r="P267" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="Q267" s="1">
         <v>0</v>
@@ -23465,7 +24140,7 @@
     </row>
     <row r="268" spans="1:28">
       <c r="A268" s="1" t="s">
-        <v>201</v>
+        <v>415</v>
       </c>
       <c r="B268" s="1">
         <v>6105</v>
@@ -23477,7 +24152,7 @@
         <v>6155</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1">
@@ -23508,7 +24183,7 @@
         <v>2</v>
       </c>
       <c r="P268" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="Q268" s="1">
         <v>0</v>
@@ -23549,7 +24224,7 @@
     </row>
     <row r="269" spans="1:28">
       <c r="A269" s="1" t="s">
-        <v>201</v>
+        <v>416</v>
       </c>
       <c r="B269" s="1">
         <v>6155</v>
@@ -23561,7 +24236,7 @@
         <v>6205</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1">
@@ -23592,7 +24267,7 @@
         <v>3</v>
       </c>
       <c r="P269" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="Q269" s="1">
         <v>0</v>
@@ -23633,7 +24308,7 @@
     </row>
     <row r="270" spans="1:28">
       <c r="A270" s="1" t="s">
-        <v>201</v>
+        <v>417</v>
       </c>
       <c r="B270" s="1">
         <v>6205</v>
@@ -23645,7 +24320,7 @@
         <v>6255</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1">
@@ -23676,7 +24351,7 @@
         <v>4</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="Q270" s="1">
         <v>0</v>
@@ -23717,7 +24392,7 @@
     </row>
     <row r="271" spans="1:28">
       <c r="A271" s="1" t="s">
-        <v>201</v>
+        <v>418</v>
       </c>
       <c r="B271" s="1">
         <v>6255</v>
@@ -23729,7 +24404,7 @@
         <v>6305</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1">
@@ -23760,7 +24435,7 @@
         <v>5</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="Q271" s="1">
         <v>0</v>
@@ -23801,7 +24476,7 @@
     </row>
     <row r="272" spans="1:28">
       <c r="A272" s="1" t="s">
-        <v>201</v>
+        <v>419</v>
       </c>
       <c r="B272" s="1">
         <v>6305</v>
@@ -23813,7 +24488,7 @@
         <v>6355</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="F272" s="1"/>
       <c r="G272" s="1">
@@ -23844,7 +24519,7 @@
         <v>6</v>
       </c>
       <c r="P272" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="Q272" s="1">
         <v>0</v>
@@ -23885,7 +24560,7 @@
     </row>
     <row r="273" spans="1:28">
       <c r="A273" s="1" t="s">
-        <v>203</v>
+        <v>420</v>
       </c>
       <c r="B273" s="1">
         <v>6056</v>
@@ -23897,7 +24572,7 @@
         <v>6106</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="F273" s="1"/>
       <c r="G273" s="1">
@@ -23928,7 +24603,7 @@
         <v>1</v>
       </c>
       <c r="P273" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="Q273" s="1">
         <v>0</v>
@@ -23969,7 +24644,7 @@
     </row>
     <row r="274" spans="1:28">
       <c r="A274" s="1" t="s">
-        <v>203</v>
+        <v>421</v>
       </c>
       <c r="B274" s="1">
         <v>6106</v>
@@ -23981,7 +24656,7 @@
         <v>6156</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="F274" s="1"/>
       <c r="G274" s="1">
@@ -24012,7 +24687,7 @@
         <v>2</v>
       </c>
       <c r="P274" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="Q274" s="1">
         <v>0</v>
@@ -24053,7 +24728,7 @@
     </row>
     <row r="275" spans="1:28">
       <c r="A275" s="1" t="s">
-        <v>203</v>
+        <v>422</v>
       </c>
       <c r="B275" s="1">
         <v>6156</v>
@@ -24065,7 +24740,7 @@
         <v>6206</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="F275" s="1"/>
       <c r="G275" s="1">
@@ -24096,7 +24771,7 @@
         <v>3</v>
       </c>
       <c r="P275" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="Q275" s="1">
         <v>0</v>
@@ -24137,7 +24812,7 @@
     </row>
     <row r="276" spans="1:28">
       <c r="A276" s="1" t="s">
-        <v>203</v>
+        <v>423</v>
       </c>
       <c r="B276" s="1">
         <v>6206</v>
@@ -24149,7 +24824,7 @@
         <v>6256</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1">
@@ -24180,7 +24855,7 @@
         <v>4</v>
       </c>
       <c r="P276" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="Q276" s="1">
         <v>0</v>
@@ -24221,7 +24896,7 @@
     </row>
     <row r="277" spans="1:28">
       <c r="A277" s="1" t="s">
-        <v>203</v>
+        <v>424</v>
       </c>
       <c r="B277" s="1">
         <v>6256</v>
@@ -24233,7 +24908,7 @@
         <v>6306</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="F277" s="1"/>
       <c r="G277" s="1">
@@ -24264,7 +24939,7 @@
         <v>5</v>
       </c>
       <c r="P277" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="Q277" s="1">
         <v>0</v>
@@ -24305,7 +24980,7 @@
     </row>
     <row r="278" spans="1:28">
       <c r="A278" s="1" t="s">
-        <v>203</v>
+        <v>425</v>
       </c>
       <c r="B278" s="1">
         <v>6306</v>
@@ -24317,7 +24992,7 @@
         <v>6356</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1">
@@ -24348,7 +25023,7 @@
         <v>6</v>
       </c>
       <c r="P278" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="Q278" s="1">
         <v>0</v>
@@ -24389,7 +25064,7 @@
     </row>
     <row r="279" spans="1:28">
       <c r="A279" s="1" t="s">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="B279" s="1">
         <v>6057</v>
@@ -24401,7 +25076,7 @@
         <v>6107</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="F279" s="1"/>
       <c r="G279" s="1">
@@ -24432,7 +25107,7 @@
         <v>1</v>
       </c>
       <c r="P279" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="Q279" s="1">
         <v>0</v>
@@ -24473,7 +25148,7 @@
     </row>
     <row r="280" spans="1:28">
       <c r="A280" s="1" t="s">
-        <v>205</v>
+        <v>427</v>
       </c>
       <c r="B280" s="1">
         <v>6107</v>
@@ -24485,7 +25160,7 @@
         <v>6157</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1">
@@ -24516,7 +25191,7 @@
         <v>2</v>
       </c>
       <c r="P280" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="Q280" s="1">
         <v>0</v>
@@ -24557,7 +25232,7 @@
     </row>
     <row r="281" spans="1:28">
       <c r="A281" s="1" t="s">
-        <v>205</v>
+        <v>428</v>
       </c>
       <c r="B281" s="1">
         <v>6157</v>
@@ -24569,7 +25244,7 @@
         <v>6207</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="F281" s="1"/>
       <c r="G281" s="1">
@@ -24600,7 +25275,7 @@
         <v>3</v>
       </c>
       <c r="P281" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="Q281" s="1">
         <v>0</v>
@@ -24641,7 +25316,7 @@
     </row>
     <row r="282" spans="1:28">
       <c r="A282" s="1" t="s">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="B282" s="1">
         <v>6207</v>
@@ -24653,7 +25328,7 @@
         <v>6257</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="F282" s="1"/>
       <c r="G282" s="1">
@@ -24684,7 +25359,7 @@
         <v>4</v>
       </c>
       <c r="P282" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="Q282" s="1">
         <v>0</v>
@@ -24725,7 +25400,7 @@
     </row>
     <row r="283" spans="1:28">
       <c r="A283" s="1" t="s">
-        <v>205</v>
+        <v>430</v>
       </c>
       <c r="B283" s="1">
         <v>6257</v>
@@ -24737,7 +25412,7 @@
         <v>6307</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="F283" s="1"/>
       <c r="G283" s="1">
@@ -24768,7 +25443,7 @@
         <v>5</v>
       </c>
       <c r="P283" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="Q283" s="1">
         <v>0</v>
@@ -24809,7 +25484,7 @@
     </row>
     <row r="284" spans="1:28">
       <c r="A284" s="1" t="s">
-        <v>205</v>
+        <v>431</v>
       </c>
       <c r="B284" s="1">
         <v>6307</v>
@@ -24821,7 +25496,7 @@
         <v>6357</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1">
@@ -24852,7 +25527,7 @@
         <v>6</v>
       </c>
       <c r="P284" s="1" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="Q284" s="1">
         <v>0</v>
